--- a/codes/database/Produto.xlsx
+++ b/codes/database/Produto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>tickers</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sentimentos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,6 +472,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>positive (69.36000061035156%)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,6 +495,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>negative (91.95999908447266%)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -503,6 +518,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>positive (80.51000213623047%)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -521,6 +541,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>positive (84.4800033569336%)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -539,6 +564,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>positive (71.45999908447266%)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -556,6 +586,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -573,6 +608,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -590,6 +630,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -607,6 +652,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -624,6 +674,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -641,6 +696,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -658,6 +718,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -675,6 +740,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -692,6 +762,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -709,6 +784,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -726,6 +806,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -743,6 +828,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -760,6 +850,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -777,6 +872,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -794,6 +894,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -811,6 +916,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -828,6 +938,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -845,6 +960,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -862,6 +982,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -879,6 +1004,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -896,6 +1026,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -913,6 +1048,11 @@
           <t>Erro ao processar</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -928,6 +1068,11 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>Erro ao processar</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>positive (93.33000183105469%)</t>
         </is>
       </c>
     </row>

--- a/codes/database/Produto.xlsx
+++ b/codes/database/Produto.xlsx
@@ -463,18 +463,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">O mercado de debêntures incentivadas (DI) vive um boom, impulsionado pela busca por investimentos isentos de IR e pelas restrições a outros títulos isentos. Só no 1º semestre de 2024, as emissões de DIs atingiram R$ 77,78 bi, um salto de 385% em relação ao mesmo período de 2019. As DIs são títulos de renda fixa emitidos por empresas para financiar projetos de infraestrutura, com isenção de IR para o investidor. O Conselho Monetário Nacional (CMN) restringiu outros títulos isentos, levando investidores a migrarem para as DIs. Entre os maiores emissores estão empresas como Petrobras, Rumo, Eneva e Engie.
+          <t xml:space="preserve">O mercado de debêntures incentivadas, títulos de renda fixa isentos de imposto de renda, está em alta. Impulsionado pelo boom da renda fixa e pelas restrições a outros títulos isentos, como LCIs e LCAs, o volume de emissões saltou 385% desde 2019, atingindo R$ 77,78 bilhões no primeiro semestre de 2024.
+Emitidas por empresas para financiar projetos de infraestrutura, as debêntures incentivadas atraem investidores em busca de retornos maiores e diversificação. Entre os principais emissores, destacam-se Petrobras, Rumo, Eneva, Engie e CCR, com ofertas que podem ultrapassar R$ 9 bilhões. 
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>O, CCR, R</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>positive (69.36000061035156%)</t>
+          <t>negative (74.86000061035156%)</t>
         </is>
       </c>
     </row>
@@ -486,18 +487,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A fintech brasileira Rivool Finance expande suas operações com a criação de um braço de banco de investimento, consolidando sua presença no mercado de crédito nacional. A nova divisão será comandada por Fernando Fegyveres, profissional experiente no setor financeiro e ex-CEO do banco Voiter, que agora assume o papel de sócio da Rivool. A empresa utiliza a tecnologia blockchain para tokenizar créditos, facilitando o acesso de investidores internacionais a esse mercado no Brasil.  A iniciativa demonstra a busca da Rivool em ampliar seu portfólio de serviços e fortalecer sua posição como um player relevante no cenário financeiro brasileiro. 
+          <t xml:space="preserve">A Rivool Finance lança braço de banco de investimento liderado por Fernando Fegyveres, ex-CEO do Voiter e agora sócio da fintech. A iniciativa expande a atuação da empresa, que conecta investidores do Brasil e do exterior ao mercado de crédito nacional através da tokenização, simplificando o acesso a esse tipo de investimento. A chegada de Fegyveres e a criação do braço de investimentos demonstram a ambição da Rivool em consolidar sua posição nesse mercado em crescimento. 
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, CEO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>negative (91.95999908447266%)</t>
+          <t>negative (85.80999755859375%)</t>
         </is>
       </c>
     </row>
@@ -509,18 +510,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, anunciou que o Pix por aproximação será disponibilizado em breve na carteira digital do Google, permitindo pagamentos com roteamento para contas escolhidas pelo usuário. A parceria com o Google é a primeira, mas o BC está aberto a outras. Campos Neto destacou a facilidade do sistema e a possibilidade de programar o roteamento para diferentes contas. O presidente do BC reiterou que a economia está caminhando para a tokenização, com o Pix, a internacionalização da moeda, o Open Finance e o Drex atuando de forma integrada nesse processo. Ele mencionou ainda a inteligência artificial e a monetização de dados como próximos passos, destacando a importância de as pessoas passarem a vender seus dados, em vez de doá-los. 
+          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, anunciou que o Pix por aproximação, via carteira digital do Google, estará disponível em breve. A parceria permitirá o pagamento com Pix por meio de smartphones Android, com roteamento para diversas contas. O BC está aberto a novas parcerias. Campos Neto destacou o avanço da tokenização da economia e mencionou o Pix, a internacionalização da moeda, o Open Finance e o Drex como pilares dessa transformação. Ele ainda apontou a inteligência artificial e a monetização de dados como próximos passos, defendendo que as pessoas deveriam ser remuneradas por seus dados. 
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O, BC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>positive (80.51000213623047%)</t>
+          <t>positive (66.69999694824219%)</t>
         </is>
       </c>
     </row>
@@ -532,18 +533,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, afirmou que a economia caminha para a tokenização, processo de converter valor em tokens digitais, como criptomoedas. Ele comparou a progressão a um trem que já partiu, com avanços e recuos. Campos Neto destacou a tokenização como parte de um plano de seis anos no BC, que inclui Pix, internacionalização da moeda, Open Finance e Drex (real digital). Ele defendeu a posição do BC contra a proibição de ativos virtuais, argumentando que a restrição aumenta o risco em vez de diminuí-lo, embora reconheça ser uma visão minoritária globalmente. O presidente do BC também observou que o crescimento dos ativos virtuais está concentrado em stablecoins, atreladas a moedas como o dólar, o que sugere uma busca por alternativas mais baratas para contas em moeda estrangeira. 
+          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, afirmou que a economia caminha para a tokenização, processo de converter valor em tokens digitais. Ele destacou o Pix, Open Finance e o Drex como exemplos da agenda tecnológica do BC. Campos Neto defende a tokenização e se diz contrário à proibição de ativos virtuais, posição minoritária entre os BCs. Ele acredita que a proibição aumenta os riscos e observa o crescimento das stablecoins como uma busca por alternativas mais baratas para ter conta em dólar. 
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>positive (84.4800033569336%)</t>
+          <t>positive (84.69000244140625%)</t>
         </is>
       </c>
     </row>
@@ -555,18 +556,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, revelou que o Pix custa US$ 10 milhões por ano para operar, mas que o custo de desenvolvimento, entre US$ 3 e US$ 4 milhões, foi compartilhado com os bancos. O sistema processa 240 milhões de transações diárias, uma média de duas por pessoa bancarizada no Brasil. Campos Neto, em evento na Universidade de Princeton, destacou o Pix como um pilar da inovação financeira, junto com a internacionalização do real, Open Finance e Drex (real digital). Ele mencionou o desenvolvimento futuro de um agregador de serviços financeiros, combinando Pix, Drex e Open Finance, com algumas empresas já desenvolvendo pilotos. Sobre o Drex, o desafio é escalar a plataforma sem comprometer a privacidade, programabilidade e descentralização. Soluções em desenvolvimento indicam progresso, mas ainda não atingiram o volume de transações desejado. 
+          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, revelou que o Pix custa US$ 10 milhões/ano para operar, com pico de 240 milhões de transações/dia. O custo inicial, de US$ 3 a 4 milhões, foi dividido com bancos. Campos Neto destacou o sucesso do Pix como porta de entrada para a inovação, abrindo caminho para tokenização, Open Finance e Drex (real digital). Ele prevê a criação de agregadores financeiros unindo essas tecnologias.  O desafio do Drex é escalar com privacidade, programabilidade e descentralização. Soluções em desenvolvimento buscam aumentar o número de transações, ainda não ideal. 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>US, O</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>positive (71.45999908447266%)</t>
+          <t>negative (59.90999984741211%)</t>
         </is>
       </c>
     </row>
@@ -578,17 +579,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O Banco Central (BC) anunciou a abertura de inscrições para a segunda fase do Drex, plataforma de moeda digital, na próxima semana. Com duração de quatro semanas, a chamada visa ampliar a participação do setor privado no projeto, que testará 13 casos de uso de tokenização de ativos, como cessão de recebíveis e crédito colateralizado. O BC espera implementar o novo modelo no início de 2025, com maior participação dos bancos na solução de desafios como a  privacidade das transações. A segurança cibernética e a privacidade são cruciais para o sucesso do projeto, que poderá ser expandido para testes com a população após a validação dessa fase. 
+</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O, BC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (56.709999084472656%)</t>
         </is>
       </c>
     </row>
@@ -600,17 +602,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O Banco BV inaugurou filial em Luxemburgo para expandir internacionalmente seus negócios no segmento de atacado.  Com equipe de 10 pessoas, a filial oferecerá produtos como trade finance, empréstimos internacionais e investimentos para clientes corporativos. A iniciativa visa ampliar alternativas de financiamento externo e centralizar as operações em moeda estrangeira, tornando o banco mais competitivo. No primeiro semestre, a carteira de crédito do BV totalizou R$ 88,1 bilhões, com R$ 25,6 bilhões provenientes do atacado. 
+</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O, R, BV</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (86.88999938964844%)</t>
         </is>
       </c>
     </row>
@@ -622,17 +625,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O Banco BV inaugurou uma filial em Luxemburgo, visando clientes corporativos e de atacado. Com equipe de dez pessoas, a unidade focará em soluções de trade finance, empréstimos internacionais e produtos de investimento. A iniciativa busca oferecer preços mais competitivos e fortalecer a atuação do BV no mercado financeiro global. 
+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O, BV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (87.62999725341797%)</t>
         </is>
       </c>
     </row>
@@ -644,17 +648,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O Ibovespa fechou em alta pelo segundo dia, mas enfrenta resistência.  Após bater máxima histórica em agosto, iniciou correção. Se romper suporte em 133.110 pontos, pode cair para 130.400. Rompendo resistência em 134.355 pontos, mira 137.469. Mini-índice acompanha o índice, com suportes e resistências semelhantes. Minidólar fechou em alta, buscando romper resistência em 5.465 pontos. Agenda inclui dados de emprego nos EUA e indicadores de serviços. Mercados internacionais operam em queda, com exceção da bolsa japonesa e petróleo em alta. 
+</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>O, EUA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>neutral (96.08000183105469%)</t>
         </is>
       </c>
     </row>
@@ -666,17 +671,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O mercado financeiro brasileiro reagiu com cautela ao aumento da nota de crédito do Brasil pela Moody's, reconhecendo o cenário desafiador. Roberto Campos Neto, presidente do Banco Central, discursa sobre o tema em dois eventos. Especialistas apontam que a trajetória para o grau de investimento exige controle de gastos. Enquanto isso, a tensão no Oriente Médio e os dados de emprego nos EUA geram cautela. No cenário corporativo, Petrobras, Vale, Gerdau e Ambev tiveram suas notas elevadas. A Vale e o BNDES anunciaram um fundo de investimento em minerais críticos. As eleições municipais entram em seus momentos finais com o último debate em São Paulo.  
+</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O, EUA, BNDES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (72.66999816894531%)</t>
         </is>
       </c>
     </row>
@@ -688,17 +694,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">A Moody's manteve o rating da Petrobras em "Ba1", mas elevou sua perspectiva para positiva, refletindo a visão otimista sobre o rating soberano do Brasil e a expectativa de estabilidade no perfil de crédito da estatal. A agência reconhece a baixa probabilidade de default da Petrobras, mesmo sendo uma empresa estatal, devido à solidez de seus indicadores financeiros. A Moody's destaca, porém, a exposição da companhia a mudanças políticas e interferências governamentais como fatores que limitam um rating ainda melhor. 
+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (86.69999694824219%)</t>
         </is>
       </c>
     </row>
@@ -710,17 +717,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">Diretores financeiros no Brasil planejam usar "títulos verdes" como estratégia ESG para captar recursos. Emissão de "green bonds" e "sustainability bonds" é a segunda maior prioridade, à frente de investimentos em economia circular e energia limpa, segundo pesquisa do Insper e Assetz. Natura e Eletrobras são exemplos de empresas que captaram recursos via títulos verdes recentemente. Apesar da crescente preocupação com ESG, o mercado brasileiro ainda precisa amadurecer nesse quesito. A implementação de normas internacionais de sustentabilidade deve impulsionar a adoção de práticas ESG e fortalecer o mercado de títulos verdes no país. 
+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, ESG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (81.29000091552734%)</t>
         </is>
       </c>
     </row>
@@ -732,17 +740,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">A temporada de resultados do 3º trimestre de 2024 começou! O mercado aguarda ansioso pelos números de empresas como Multiplan (24/10), Suzano (24/10), Vale (24/10) e outras gigantes do Ibovespa. As demonstrações financeiras (DFP e ITR) são obrigatórias e devem ser enviadas à CVM em até 90 dias após o fim do trimestre. Fique atento ao calendário para acompanhar o desempenho das empresas, analisar indicadores e tomar decisões de investimento mais assertivas. 
+</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>ITR, DFP, CVM, A, O</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (95.05999755859375%)</t>
         </is>
       </c>
     </row>
@@ -754,17 +763,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">Empresas chinesas investiram mais de US$ 100 bilhões em projetos de energia limpa no exterior desde 2023, segundo a CEF. A China domina a produção de painéis solares, baterias e veículos elétricos, gerando preocupações sobre práticas comerciais desleais. EUA, Canadá e UE implementaram tarifas sobre produtos chineses. Em resposta, empresas chinesas, como BYD e CATL, investem em fábricas no exterior para driblar barreiras comerciais. Estima-se que dois terços da capacidade de tecnologia limpa da China buscarão mercados de exportação até 2030. A China critica as sobretaxas, argumentando que prejudicam o combate às mudanças climáticas e aumentam os custos da transição energética global. 
+</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>EUA, UE, A, US, BYD, CEF, CATL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>neutral (89.68000030517578%)</t>
         </is>
       </c>
     </row>
@@ -776,17 +786,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">Os fundos multimercado estão concentrando seus investimentos nas gigantes da bolsa brasileira, especialmente em empresas do setor de commodities como Vale e Petrobras. Um levantamento da Quantum revela que a Vale foi a ação mais comprada entre janeiro e abril de 2024, com uma média mensal de 708 fundos investindo R$ 4,37 bilhões. 
+A preferência por essas ações se deve à sua alta liquidez, o que facilita a entrada e saída de posições. Além disso, a familiaridade e o volume de negociação dessas empresas tornam o processo de investimento mais ágil. 
+Apesar do perfil conservador, alguns fundos têm diversificado suas carteiras com ações menos tradicionais, como Lojas Renner e Allos, que se mantiveram presentes nos portfólios durante todo o período analisado.
+Especialistas apontam que a dificuldade em construir posições em empresas menores e menos líquidas, como as small caps, contribui para a concentração em ações de grande porte. A demora para montar uma posição em empresas com menor liquidez pode levar de quatro a cinco pregões, impactando a agilidade e a rentabilidade das operações. 
+</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, R</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (86.7300033569336%)</t>
         </is>
       </c>
     </row>
@@ -798,17 +812,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">A prisão da influenciadora Deolane Bezerra reacende o debate sobre o impacto da reputação na carreira. O especialista Marcos Tonin alerta para a fragilidade da imagem pública, especialmente para executivos. Segundo ele, a reputação influencia 60% das decisões de compra e líderes com boa imagem têm 30% mais chances de promoção. Empresas com reputação forte podem cobrar até 10% a mais por seus produtos. Tonin destaca a importância da ética, transparência e responsabilidade na construção de uma imagem positiva, crucial para o sucesso profissional e empresarial. 
+</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (86.31999969482422%)</t>
         </is>
       </c>
     </row>
@@ -820,17 +835,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">Outubro será um mês de proventos para investidores da B3, com 25 empresas pagando dividendos e JCP. Bancos como Bradesco, Itaú e Banese abrem a agenda no dia 1º. O destaque fica para a JBS, que distribuirá R$ 4,436 bilhões em dividendos no dia 7, com pagamento de R$ 2 por ação. A B3 também paga proventos no dia 7, totalizando R$ 516 milhões. Outros destaques incluem Tim, Alupar e Panatlantica. O calendário completo com datas, valores e tipos de proventos está disponível na notícia. É importante lembrar que dividendos são isentos de IR, enquanto JCP está sujeito à alíquota de 15%.
+</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>B3, R, JBS, JCP, A, IR, O</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (94.6500015258789%)</t>
         </is>
       </c>
     </row>
@@ -842,17 +858,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O fechamento de agências bancárias tradicionais contrasta com a expansão das cooperativas de crédito, como o Sicredi, que cresceu 23,9% em 2023, atingindo R$ 731 bilhões em ativos. O Sicredi abriu agências em 779 municípios, sendo a única instituição financeira presente em mais de 200 deles. Com 8,3 milhões de associados, a cooperativa foca em micro e pequenas empresas, além do agronegócio. Inovação tecnológica, com foco em aplicativos e inteligência artificial, também impulsionam o crescimento, assim como as soluções do Open Finance. O objetivo é alcançar 10 milhões de associados até 2025. 
+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>O, R</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (72.44999694824219%)</t>
         </is>
       </c>
     </row>
@@ -864,17 +881,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">A Linklaters assessorou a Africa Finance Corporation (AFC) em dois acordos com Angola e Zâmbia para o desenvolvimento do Corredor do Lobito, projeto ferroviário que ligará o porto angolano à Zâmbia. A AFC, promotora principal, junto a EUA, UE e outros, construirá 800 km de linha, criando uma rota estratégica para exportações da Zâmbia e Congo. O projeto, avaliado em US$ 3 bilhões, visa transportar minerais essenciais, além de produtos agrícolas, impulsionando o comércio regional e global. A Linklaters, com escritórios em Lisboa e Paris, destacou sua experiência em projetos internacionais de grande escala, compromisso com a África e conhecimento do setor mineiro. Os acordos foram assinados em setembro durante a Assembleia Geral da ONU. 
+</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>EUA, UE, A, US, O, ONU, AFC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (83.56999969482422%)</t>
         </is>
       </c>
     </row>
@@ -886,17 +904,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">José Maria Rego, fundador da fintech Raize, assume liderança da área de Consumer Finance do Novo Banco. A nomeação visa impulsionar a transformação e crescimento desta área estratégica, que representa mais de 330 milhões de euros em financiamento anual. Rego, conhecido por sua expertise em fintechs, terá como foco a inovação, a aproximação com o cliente e a otimização do modelo de serviço. A mudança reflete a estratégia do Novo Banco de fortalecer áreas chave com líderes experientes e inovadores. Rego deixou a Raize após a Flexdeal tornar-se acionista majoritária em 2024. 
+</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (75.18000030517578%)</t>
         </is>
       </c>
     </row>
@@ -908,17 +927,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">José Maria Rego, fundador da Raize, assume liderança da área de crédito ao consumo do Novobanco, que representa €330 milhões em financiamento anual. A mudança, parte de uma reforma estratégica, visa tornar o banco mais ágil e focado no cliente através de tecnologia e inovação. Rego pretende aproximar o banco das necessidades dos clientes. Mark Bourke, CEO do Novobanco, celebra a experiência de Rego e o foco na melhor experiência para o cliente. A nomeação segue a chegada de João Paixão Moreira como administrador comercial em maio, reforçando a estrutura do banco. 
+</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, CEO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (77.66000366210938%)</t>
         </is>
       </c>
     </row>
@@ -930,17 +950,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">Novas regras do open finance facilitam o Pix por aproximação, com lançamento previsto para fevereiro de 2025. O sistema, mais leve e eficiente, impulsionará os pagamentos, segundo o Banco Central. O open finance, que permite o compartilhamento de dados entre instituições, visa aumentar a transparência e competitividade no setor. A ferramenta, que está em consolidação, deve ser impulsionada pela inteligência artificial, proporcionando portabilidade mais fluida.  
+</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (62.56999969482422%)</t>
         </is>
       </c>
     </row>
@@ -952,17 +973,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O Banco Central prevê que o Pix por aproximação, com lançamento em fevereiro de 2025, terá implementação facilitada pelas novas regras do open finance, lançadas em julho. O sistema, mais leve e eficiente, reduzirá custos para consumidores e lojistas. O open finance, que permite o compartilhamento de dados entre instituições financeiras, visa aumentar a  transparência e a competitividade no setor. Segundo o diretor do BC, Otávio Damaso, 2024 será o ano de consolidação da ferramenta, impulsionada pela inteligência artificial e portabilidades mais fluidas. 
+</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>O, BC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (64.37000274658203%)</t>
         </is>
       </c>
     </row>
@@ -974,17 +996,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">O Banco Central prevê que as novas regras do open finance facilitarão a implementação do Pix por aproximação em 2025. O sistema, mais leve e eficiente, reduzirá custos para consumidores e lojistas. O open finance, que visa maior controle do consumidor sobre seus dados, impulsionará a portabilidade de crédito e salários. O desafio é ampliar o uso entre pessoas jurídicas, com foco em casos de uso que facilitem a vida do PJ, inspirados em modelos internacionais como o do Reino Unido.  
+</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>O, PJ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (60.47999954223633%)</t>
         </is>
       </c>
     </row>
@@ -996,17 +1019,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">As novas regras do open finance, sistema de compartilhamento de dados do Banco Central, devem facilitar a implementação do Pix por aproximação, com lançamento em fevereiro de 2025. O novo arcabouço regulatório torna o modelo mais eficiente e barato, segundo o diretor do BC, Otávio Damaso. O open finance, que permite o compartilhamento de dados entre instituições financeiras, visa aumentar a  transparência e a competitividade no setor.  Damaso acredita que 2024 será o ano de consolidação da ferramenta, impulsionada pela inteligência artificial, com portabilidades mais fluidas. 
+</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>O, BC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>negative (60.720001220703125%)</t>
         </is>
       </c>
     </row>
@@ -1018,17 +1042,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">As transferências inteligentes, funcionalidade do open finance que permite automatizar envios via Pix entre contas do mesmo usuário, ainda estão em fase inicial de adoção devido a dificuldades técnicas. Fintechs como Mercado Pago e Noh relatam problemas na autorização e efetivação das transações por parte de algumas instituições. Apesar dos obstáculos, a promessa de praticidade e organização financeira tem atraído usuários, que podem, por exemplo, abastecer contas conjuntas ou evitar saldos negativos de forma automática. A expectativa é que, com o tempo, as falhas sejam corrigidas e a funcionalidade se popularize. 
+</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>neutral (63.20000076293945%)</t>
         </is>
       </c>
     </row>
@@ -1040,17 +1065,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">A China, famosa por suas megaconstruções, enfrenta um dilema com o Goldin Finance 117, o maior arranha-céu abandonado do mundo. Localizado em Tianjin, o prédio de 597 metros deveria ser o coração de um luxuoso complexo comercial, mas foi atingido por diversos problemas financeiros e pela recessão imobiliária. Iniciado em 2008, o projeto sofreu várias paralisações, deixando a estrutura inacabada, com apenas 3/4 da fachada coberta. 
+O fracasso do Goldin Finance 117 levou o governo chinês a repensar suas políticas de construção. Buscando recuperar a identidade arquitetônica e evitar novas obras faraônicas inacabadas, o governo de Xi Jinping proibiu a construção de prédios com mais de 500 metros de altura. Além disso,  estabeleceu limites para torres acima de 250 metros e impôs rigorosas medidas de segurança para edifícios com mais de 100 metros. 
+O Goldin Finance 117 serve como um lembrete visível dos desafios e excessos da construção desenfreada na China, impactando diretamente as futuras políticas de planejamento urbano do país. 
+</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, O</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>neutral (90.62999725341797%)</t>
         </is>
       </c>
     </row>
@@ -1062,17 +1090,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t xml:space="preserve">A CVM anunciou novas regras para portabilidade de investimentos, com foco em desburocratização,  transparência e segurança. A partir de 1º de julho de 2024,  a Resolução CVM 210 permitirá interface digital para solicitação,  escolha do ponto de solicitação, prazos transparentes, acompanhamento em tempo real e  penalidades para atrasos. A medida visa fortalecer o mercado de capitais, empoderar o investidor e  fomentar a competição. As regras  se integrarão ao Open Finance para maior automatização e  prospecção de clientes. 
+</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Erro ao processar</t>
+          <t>A, CVM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>positive (93.33000183105469%)</t>
+          <t>positive (76.73999786376953%)</t>
         </is>
       </c>
     </row>

--- a/codes/database/Produto.xlsx
+++ b/codes/database/Produto.xlsx
@@ -463,19 +463,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">O mercado de debêntures incentivadas, títulos de renda fixa isentos de imposto de renda, está em alta. Impulsionado pelo boom da renda fixa e pelas restrições a outros títulos isentos, como LCIs e LCAs, o volume de emissões saltou 385% desde 2019, atingindo R$ 77,78 bilhões no primeiro semestre de 2024.
-Emitidas por empresas para financiar projetos de infraestrutura, as debêntures incentivadas atraem investidores em busca de retornos maiores e diversificação. Entre os principais emissores, destacam-se Petrobras, Rumo, Eneva, Engie e CCR, com ofertas que podem ultrapassar R$ 9 bilhões. 
+          <t xml:space="preserve">O mercado de debêntures incentivadas, títulos de renda fixa isentos de imposto de renda, está em alta, impulsionado pelo boom da renda fixa e pelas restrições a outros títulos isentos. Essas debêntures, emitidas por empresas para financiar projetos de infraestrutura, tiveram um salto de 385% em emissões entre o primeiro semestre de 2019 e 2024, atingindo R$ 77,78 bilhões. A migração de investidores de LCIs, LCAs, CRIs e CRAs, devido a limites impostos pelo governo, contribuiu para o crescimento do mercado. As debêntures incentivadas tornaram-se atrativas por seu potencial de retorno e como alternativa de diversificação. Entre os principais emissores estão empresas como Petrobras, Rumo, Eneva e Engie. 
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O, CCR, R</t>
+          <t xml:space="preserve">- PETR4
+- RAIL3
+- ENEV3
+- EGIE3
+- CCRO3 
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>negative (74.86000061035156%)</t>
+          <t>negative (80.87999725341797%)</t>
         </is>
       </c>
     </row>
@@ -487,18 +491,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Rivool Finance lança braço de banco de investimento liderado por Fernando Fegyveres, ex-CEO do Voiter e agora sócio da fintech. A iniciativa expande a atuação da empresa, que conecta investidores do Brasil e do exterior ao mercado de crédito nacional através da tokenização, simplificando o acesso a esse tipo de investimento. A chegada de Fegyveres e a criação do braço de investimentos demonstram a ambição da Rivool em consolidar sua posição nesse mercado em crescimento. 
+          <t xml:space="preserve">A Rivool Finance lança braço de banco de investimento liderado por Fernando Fegyveres, ex-CEO do Voiter e agora sócio da fintech. A iniciativa amplia a atuação da empresa que conecta investidores do Brasil e do exterior ao mercado de crédito nacional através da tokenização. A novidade promete abrir novas oportunidades para investidores e fortalecer a presença da Rivool no mercado financeiro.  
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A, CEO</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>negative (85.80999755859375%)</t>
+          <t>negative (88.31999969482422%)</t>
         </is>
       </c>
     </row>
@@ -510,18 +515,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, anunciou que o Pix por aproximação, via carteira digital do Google, estará disponível em breve. A parceria permitirá o pagamento com Pix por meio de smartphones Android, com roteamento para diversas contas. O BC está aberto a novas parcerias. Campos Neto destacou o avanço da tokenização da economia e mencionou o Pix, a internacionalização da moeda, o Open Finance e o Drex como pilares dessa transformação. Ele ainda apontou a inteligência artificial e a monetização de dados como próximos passos, defendendo que as pessoas deveriam ser remuneradas por seus dados. 
+          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, anunciou que o Pix por aproximação, via carteira digital do Google, estará disponível em breve. A parceria permitirá o pagamento por aproximação utilizando o Pix como método de pagamento, com a opção de roteamento para diferentes contas. Campos Neto ressaltou o avanço da tokenização da economia e apresentou a agenda de tecnologia do BC, incluindo o Pix, internacionalização da moeda, Open Finance e Drex. Ele mencionou ainda a inteligência artificial e a monetização de dados como próximos passos, destacando a importância da remuneração pela cessão de dados. 
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A, O, BC</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>positive (66.69999694824219%)</t>
+          <t>positive (76.51000213623047%)</t>
         </is>
       </c>
     </row>
@@ -533,18 +539,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, afirmou que a economia caminha para a tokenização, processo de converter valor em tokens digitais. Ele destacou o Pix, Open Finance e o Drex como exemplos da agenda tecnológica do BC. Campos Neto defende a tokenização e se diz contrário à proibição de ativos virtuais, posição minoritária entre os BCs. Ele acredita que a proibição aumenta os riscos e observa o crescimento das stablecoins como uma busca por alternativas mais baratas para ter conta em dólar. 
+          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, afirmou que a economia caminha para a tokenização, processo de converter ativos em tokens digitais. Ele destacou a tokenização como parte de sua gestão no BC, junto com Pix, Open Finance e Drex. Campos Neto defendeu a posição do BC contra a proibição de ativos virtuais, argumentando que a restrição aumenta o risco. Ele observou que o crescimento se concentra em stablecoins, atreladas a moedas como o dólar, o que pode indicar a busca por alternativas mais baratas para contas em moeda estrangeira. 
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>positive (84.69000244140625%)</t>
+          <t>positive (75.55999755859375%)</t>
         </is>
       </c>
     </row>
@@ -556,18 +563,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, revelou que o Pix custa US$ 10 milhões/ano para operar, com pico de 240 milhões de transações/dia. O custo inicial, de US$ 3 a 4 milhões, foi dividido com bancos. Campos Neto destacou o sucesso do Pix como porta de entrada para a inovação, abrindo caminho para tokenização, Open Finance e Drex (real digital). Ele prevê a criação de agregadores financeiros unindo essas tecnologias.  O desafio do Drex é escalar com privacidade, programabilidade e descentralização. Soluções em desenvolvimento buscam aumentar o número de transações, ainda não ideal. 
+          <t xml:space="preserve">Roberto Campos Neto, presidente do Banco Central, revelou que o Pix custa US$ 10 milhões por ano para operar, mas já processa 240 milhões de transações diárias, com custo de desenvolvimento entre US$ 3 e US$ 4 milhões. Ele destacou o sucesso do Pix como porta de entrada para a inovação financeira, junto com Open Finance e Drex (real digital). Campos Neto mencionou o desenvolvimento de agregadores financeiros combinando essas tecnologias e o desafio de escalar o Drex sem comprometer privacidade, programabilidade e descentralização. Soluções em desenvolvimento indicam a viabilidade de aumentar o número de transações em breve. 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US, O</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>negative (59.90999984741211%)</t>
+          <t>negative (84.12999725341797%)</t>
         </is>
       </c>
     </row>
@@ -579,18 +587,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Banco Central (BC) anunciou a abertura de inscrições para a segunda fase do Drex, plataforma de moeda digital, na próxima semana. Com duração de quatro semanas, a chamada visa ampliar a participação do setor privado no projeto, que testará 13 casos de uso de tokenização de ativos, como cessão de recebíveis e crédito colateralizado. O BC espera implementar o novo modelo no início de 2025, com maior participação dos bancos na solução de desafios como a  privacidade das transações. A segurança cibernética e a privacidade são cruciais para o sucesso do projeto, que poderá ser expandido para testes com a população após a validação dessa fase. 
+          <t xml:space="preserve">O Banco Central (BC) abrirá nova chamada para participantes do projeto piloto Drex na próxima semana, com duração mínima de quatro semanas. A iniciativa busca criar uma infraestrutura tokenizada para o sistema financeiro, registrando em blockchain a moeda brasileira e ativos financeiros. O objetivo é testar a  eficiência da tokenização em 13 casos de uso, com maior participação dos bancos na resolução de desafios. Segurança cibernética e privacidade são cruciais para o sucesso do projeto, que poderá ser expandido para a população após testes. Atualmente, 16 consórcios, incluindo grandes bancos, fintechs e empresas de tecnologia, participam do Drex. 
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A, O, BC</t>
+          <t xml:space="preserve">- BBAS3
+- BBDC4
+- ITUB4
+- SANB11
+- ABCB4
+- BBDC4
+- BIDI11
+- BPAC11
+- NUBR33 
+- XPBR31
+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>negative (56.709999084472656%)</t>
+          <t>positive (83.80000305175781%)</t>
         </is>
       </c>
     </row>
@@ -602,18 +620,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Banco BV inaugurou filial em Luxemburgo para expandir internacionalmente seus negócios no segmento de atacado.  Com equipe de 10 pessoas, a filial oferecerá produtos como trade finance, empréstimos internacionais e investimentos para clientes corporativos. A iniciativa visa ampliar alternativas de financiamento externo e centralizar as operações em moeda estrangeira, tornando o banco mais competitivo. No primeiro semestre, a carteira de crédito do BV totalizou R$ 88,1 bilhões, com R$ 25,6 bilhões provenientes do atacado. 
+          <t xml:space="preserve">O Banco BV inaugurou uma filial em Luxemburgo com o objetivo de ampliar sua atuação no mercado internacional e oferecer mais opções de financiamento aos clientes corporativos. Com dez funcionários, a unidade fornecerá produtos financeiros como trade finance, empréstimos internacionais e investimentos. A iniciativa visa aumentar a competitividade do banco e centralizar as operações em moeda estrangeira. O BV, que tem o Grupo Votorantim e o Banco do Brasil como sócios, busca expandir sua carteira de crédito, que no primeiro semestre era de R$ 88,1 bilhões, incluindo R$ 25,6 bilhões do segmento atacado. 
 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A, O, R, BV</t>
+          <t xml:space="preserve">- BBAS3 
+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>negative (86.88999938964844%)</t>
+          <t>negative (93.62000274658203%)</t>
         </is>
       </c>
     </row>
@@ -625,18 +644,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Banco BV inaugurou uma filial em Luxemburgo, visando clientes corporativos e de atacado. Com equipe de dez pessoas, a unidade focará em soluções de trade finance, empréstimos internacionais e produtos de investimento. A iniciativa busca oferecer preços mais competitivos e fortalecer a atuação do BV no mercado financeiro global. 
+          <t xml:space="preserve">O Banco BV inaugurou uma filial em Luxemburgo, visando clientes corporativos e de banco de investimento. Com foco em trade finance, empréstimos internacionais e investimentos, o escritório terá dez funcionários e oferecerá soluções a preços competitivos no mercado financeiro global. A iniciativa reforça a presença do BV em um dos principais centros financeiros do mundo. 
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A, O, BV</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>negative (87.62999725341797%)</t>
+          <t>negative (81.30999755859375%)</t>
         </is>
       </c>
     </row>
@@ -648,18 +668,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Ibovespa fechou em alta pelo segundo dia, mas enfrenta resistência.  Após bater máxima histórica em agosto, iniciou correção. Se romper suporte em 133.110 pontos, pode cair para 130.400. Rompendo resistência em 134.355 pontos, mira 137.469. Mini-índice acompanha o índice, com suportes e resistências semelhantes. Minidólar fechou em alta, buscando romper resistência em 5.465 pontos. Agenda inclui dados de emprego nos EUA e indicadores de serviços. Mercados internacionais operam em queda, com exceção da bolsa japonesa e petróleo em alta. 
+          <t xml:space="preserve">O Ibovespa fechou em alta pelo segundo dia, mas enfrenta resistência em 134.355/135.200 pontos. Superando essa faixa, pode buscar 136.000/136.840 pontos. Caso contrário, a quebra do suporte em 133.110/132.495 pode levar a 131.815/131.490. Mini-índice fechou em alta, mas precisa superar 134.490/134.785 para continuar subindo. Mini-dólar também subiu e rompe resistência em 5.465/5.478,5 para seguir em alta. Agenda inclui dados de emprego nos EUA e indicadores de serviços. Mercados internacionais operam em queda, com exceção da bolsa japonesa. 
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O, EUA</t>
+          <t xml:space="preserve">- WINV24
+- WDOX24 
+</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>neutral (96.08000183105469%)</t>
+          <t>neutral (96.61000061035156%)</t>
         </is>
       </c>
     </row>
@@ -671,18 +693,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">O mercado financeiro brasileiro reagiu com cautela ao aumento da nota de crédito do Brasil pela Moody's, reconhecendo o cenário desafiador. Roberto Campos Neto, presidente do Banco Central, discursa sobre o tema em dois eventos. Especialistas apontam que a trajetória para o grau de investimento exige controle de gastos. Enquanto isso, a tensão no Oriente Médio e os dados de emprego nos EUA geram cautela. No cenário corporativo, Petrobras, Vale, Gerdau e Ambev tiveram suas notas elevadas. A Vale e o BNDES anunciaram um fundo de investimento em minerais críticos. As eleições municipais entram em seus momentos finais com o último debate em São Paulo.  
+          <t xml:space="preserve">A Moody's elevou a nota de crédito do Brasil, impulsionando o otimismo do mercado, apesar do cenário ainda desafiador. Roberto Campos Neto, presidente do BC, discutirá o impacto da decisão em eventos hoje, defendendo uma taxa de juros neutra menor para o Brasil. A agenda inclui ainda dados econômicos como pedidos de seguro-desemprego nos EUA e resultados do Tesouro Nacional. No cenário internacional, as tensões no Oriente Médio preocupam investidores. As eleições municipais entram em reta final com último debate em SP. Por fim, o governo discute regulamentação das apostas esportivas e a Vale anuncia fundo para minerais críticos com o BNDES. 
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A, O, EUA, BNDES</t>
+          <t xml:space="preserve">- PETR4 
+- VALE3 
+- GGBR4 
+- ABEV3 
+</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>positive (72.66999816894531%)</t>
+          <t>positive (85.56999969482422%)</t>
         </is>
       </c>
     </row>
@@ -694,18 +720,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Moody's manteve o rating da Petrobras em "Ba1", mas elevou sua perspectiva para positiva, refletindo a visão otimista sobre o rating soberano do Brasil e a expectativa de estabilidade no perfil de crédito da estatal. A agência reconhece a baixa probabilidade de default da Petrobras, mesmo sendo uma empresa estatal, devido à solidez de seus indicadores financeiros. A Moody's destaca, porém, a exposição da companhia a mudanças políticas e interferências governamentais como fatores que limitam um rating ainda melhor. 
+          <t xml:space="preserve">A Moody's manteve o rating da Petrobras em "Ba1", mas elevou sua perspectiva para positiva, impulsionada pela perspectiva positiva da nota soberana do Brasil. A agência espera que o perfil de crédito da estatal permaneça estável, com baixo risco de default, devido às suas fortes métricas financeiras. A Moody's reconhece a baixa probabilidade da Petrobras ser afetada por dificuldades de crédito do governo, mas limita o rating devido à potencial influência política nas decisões da empresa. A avaliação positiva reflete a confiança na capacidade da Petrobras de navegar no cenário atual. 
 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">- PETR3
+- PETR4 
+</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>negative (86.69999694824219%)</t>
+          <t>negative (91.75%)</t>
         </is>
       </c>
     </row>
@@ -717,18 +745,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diretores financeiros no Brasil planejam usar "títulos verdes" como estratégia ESG para captar recursos. Emissão de "green bonds" e "sustainability bonds" é a segunda maior prioridade, à frente de investimentos em economia circular e energia limpa, segundo pesquisa do Insper e Assetz. Natura e Eletrobras são exemplos de empresas que captaram recursos via títulos verdes recentemente. Apesar da crescente preocupação com ESG, o mercado brasileiro ainda precisa amadurecer nesse quesito. A implementação de normas internacionais de sustentabilidade deve impulsionar a adoção de práticas ESG e fortalecer o mercado de títulos verdes no país. 
+          <t xml:space="preserve">CFOs no Brasil estão priorizando a emissão de títulos verdes, como "green bonds" e "sustainability bonds", como parte de suas estratégias ESG. A emissão desses títulos é vista como a segunda maior prioridade para os próximos anos, superando investimentos em economia circular e energia limpa. Empresas como a Energisa e a Natura já realizaram emissões, destinando os recursos para projetos sustentáveis e desenvolvimento de bioingredientes. Apesar da crescente preocupação com ESG, o mercado brasileiro ainda busca maturidade nesse tipo de captação, mas a implementação de normas internacionais como IFRS S1 e S2 prometem impulsionar o avanço da estratégia. 
 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A, ESG</t>
+          <t xml:space="preserve">- NATU3 
+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>negative (81.29000091552734%)</t>
+          <t>negative (78.9800033569336%)</t>
         </is>
       </c>
     </row>
@@ -740,18 +769,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">A temporada de resultados do 3º trimestre de 2024 começou! O mercado aguarda ansioso pelos números de empresas como Multiplan (24/10), Suzano (24/10), Vale (24/10) e outras gigantes do Ibovespa. As demonstrações financeiras (DFP e ITR) são obrigatórias e devem ser enviadas à CVM em até 90 dias após o fim do trimestre. Fique atento ao calendário para acompanhar o desempenho das empresas, analisar indicadores e tomar decisões de investimento mais assertivas. 
+          <t xml:space="preserve">A temporada de resultados do 3º trimestre de 2024 (3T24) das empresas listadas no Ibovespa já tem datas. O calendário, disponibilizado pela Quantum Finance, abrange a divulgação dos formulários DFP (Demonstrações Financeiras Padronizadas) e ITR (Informações Trimestrais), documentos obrigatórios para companhias abertas. O cronograma detalhado inclui empresas como Multiplan (24/10), Suzano (24/10), Vale (24/10), Usiminas (25/10), Auren (30/10) e outras, com divulgação até 31/10. A metodologia da Quantum considera os calendários da CVM e a composição mais recente do Ibovespa. 
 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ITR, DFP, CVM, A, O</t>
+          <t xml:space="preserve">- MULT3
+- SUZB3
+- VALE3
+- USIM5
+- AURE3
+- TRPL4
+- WEGE3
+- ABEV3
+- BBDC3
+- BBDC4
+- CCRO3
+- CRFB3
+- EZTC3 
+</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>positive (95.05999755859375%)</t>
+          <t>positive (95.19000244140625%)</t>
         </is>
       </c>
     </row>
@@ -763,18 +805,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Empresas chinesas investiram mais de US$ 100 bilhões em projetos de energia limpa no exterior desde 2023, segundo a CEF. A China domina a produção de painéis solares, baterias e veículos elétricos, gerando preocupações sobre práticas comerciais desleais. EUA, Canadá e UE implementaram tarifas sobre produtos chineses. Em resposta, empresas chinesas, como BYD e CATL, investem em fábricas no exterior para driblar barreiras comerciais. Estima-se que dois terços da capacidade de tecnologia limpa da China buscarão mercados de exportação até 2030. A China critica as sobretaxas, argumentando que prejudicam o combate às mudanças climáticas e aumentam os custos da transição energética global. 
+          <t xml:space="preserve">Empresas chinesas investiram mais de US$ 100 bilhões em tecnologias de energia limpa no exterior desde o início de 2023, buscando contornar barreiras comerciais e expandir sua presença global. A China domina a produção de painéis solares, baterias de lítio e veículos elétricos, o que tem gerado preocupações sobre práticas comerciais desleais e tarifas de importação impostas por países como EUA e Canadá. A União Europeia também considera medidas semelhantes. A China argumenta que as restrições prejudicam os esforços globais de combate às mudanças climáticas. Especialistas estimam que dois terços da capacidade de tecnologia limpa da China excederão a demanda interna até 2030, intensificando a busca por mercados de exportação. 
 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EUA, UE, A, US, BYD, CEF, CATL</t>
+          <t xml:space="preserve">- BYD
+- CATL 
+</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>neutral (89.68000030517578%)</t>
+          <t>positive (54.400001525878906%)</t>
         </is>
       </c>
     </row>
@@ -786,21 +830,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os fundos multimercado estão concentrando seus investimentos nas gigantes da bolsa brasileira, especialmente em empresas do setor de commodities como Vale e Petrobras. Um levantamento da Quantum revela que a Vale foi a ação mais comprada entre janeiro e abril de 2024, com uma média mensal de 708 fundos investindo R$ 4,37 bilhões. 
-A preferência por essas ações se deve à sua alta liquidez, o que facilita a entrada e saída de posições. Além disso, a familiaridade e o volume de negociação dessas empresas tornam o processo de investimento mais ágil. 
-Apesar do perfil conservador, alguns fundos têm diversificado suas carteiras com ações menos tradicionais, como Lojas Renner e Allos, que se mantiveram presentes nos portfólios durante todo o período analisado.
-Especialistas apontam que a dificuldade em construir posições em empresas menores e menos líquidas, como as small caps, contribui para a concentração em ações de grande porte. A demora para montar uma posição em empresas com menor liquidez pode levar de quatro a cinco pregões, impactando a agilidade e a rentabilidade das operações. 
+          <t xml:space="preserve">Fundos multimercado estão preferindo investir em empresas consolidadas na bolsa brasileira, principalmente as ligadas a commodities, como Vale e Petrobras, que lideram o ranking das ações mais compradas entre janeiro de 2019 e abril de 2024. Essa estratégia conservadora, segundo especialistas, se deve à alta liquidez dessas ações, facilitando a entrada e saída dos fundos. 
+No topo da lista de ações mais compradas em 2024 estão Vale, Itaú e Petrobras, refletindo a preferência por empresas com grande volume de negociação. Apesar do perfil conservador, algumas empresas "fora do radar" aparecem no ranking, como Lojas Renner e Allos, demonstrando uma diversificação estratégica dos fundos.
+Especialistas apontam que a liquidez é um fator crucial para essa escolha, já que fundos multimercado precisam de agilidade para montar e desmontar posições. A dificuldade em negociar ações menos líquidas, como as de empresas menores (small caps), também influencia essa preferência. Em resumo, os fundos multimercado demonstram aversão a riscos, priorizando empresas sólidas e com alta liquidez na bolsa brasileira. 
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A, R</t>
+          <t xml:space="preserve">- PETR3
+- PETR4
+- LREN3
+- ALOS3
+- VALE3
+- ITUB4
+- ELET3
+- SUZB3
+- PRIO3
+- BPAC11
+- SBSP3
+- EQTL3
+- RENT3
+- VBBR3
+- BBAS3
+- HAPV3
+- RAIL3
+- GGBR4
+- BBDC4 
+</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>positive (86.7300033569336%)</t>
+          <t>positive (86.25%)</t>
         </is>
       </c>
     </row>
@@ -812,18 +874,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">A prisão da influenciadora Deolane Bezerra reacende o debate sobre o impacto da reputação na carreira. O especialista Marcos Tonin alerta para a fragilidade da imagem pública, especialmente para executivos. Segundo ele, a reputação influencia 60% das decisões de compra e líderes com boa imagem têm 30% mais chances de promoção. Empresas com reputação forte podem cobrar até 10% a mais por seus produtos. Tonin destaca a importância da ética, transparência e responsabilidade na construção de uma imagem positiva, crucial para o sucesso profissional e empresarial. 
+          <t xml:space="preserve">A prisão da influenciadora Deolane Bezerra levanta o debate sobre o impacto da reputação na carreira. Especialistas alertam que a imagem pública é crucial para executivos e influenciadores, impactando decisões de compra e até promoções. Ter boa reputação agrega valor à marca pessoal e profissional, abrindo portas e fortalecendo a imagem da empresa como um todo. A transparência e a responsabilidade são essenciais para construir uma imagem positiva e evitar danos à reputação, especialmente na era digital, onde informações se espalham rapidamente. Cuidar da reputação é essencial para o sucesso profissional a longo prazo. 
 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A, O</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>positive (86.31999969482422%)</t>
+          <t>positive (81.5999984741211%)</t>
         </is>
       </c>
     </row>
@@ -835,18 +898,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Outubro será um mês de proventos para investidores da B3, com 25 empresas pagando dividendos e JCP. Bancos como Bradesco, Itaú e Banese abrem a agenda no dia 1º. O destaque fica para a JBS, que distribuirá R$ 4,436 bilhões em dividendos no dia 7, com pagamento de R$ 2 por ação. A B3 também paga proventos no dia 7, totalizando R$ 516 milhões. Outros destaques incluem Tim, Alupar e Panatlantica. O calendário completo com datas, valores e tipos de proventos está disponível na notícia. É importante lembrar que dividendos são isentos de IR, enquanto JCP está sujeito à alíquota de 15%.
+          <t xml:space="preserve">O mês das crianças também trará presentes para investidores da bolsa brasileira. Pelo menos 25 empresas distribuirão dividendos e JCP em outubro, com destaque para JBS (R$2 por ação em 07/10) e Banese (até R$1,26 por ação em 01/10). O calendário inclui ainda Bradesco, Itaú, B3 e Tim.  Lembre-se que dividendos são isentos de IR, enquanto JCP está sujeito à alíquota de 15%. A data limite para ter direito aos proventos varia conforme a empresa. Consulte o calendário completo na matéria original para verificar valores, datas e tipos de proventos. Investidores atentos podem aproveitar a "chuva de dividendos" de outubro. 
 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B3, R, JBS, JCP, A, IR, O</t>
+          <t xml:space="preserve">- BBDC3
+- BBDC4
+- ITUB3
+- ITSA4
+- BEES3
+- BGIP4
+- BGIP3
+- JBSS3
+- TIMS3
+- ALUP3
+- ALUP4
+- ALUP11
+- PATI3
+- PATI4
+- B3SA3
+- VULC3
+- FLRY3
+- MTRE3
+- RDOR3
+- RPAD5
+- LREN3
+- CSUD3
+- ALOS3
+- SOJA3
+- EVEN3
+- EALT3
+- EALT4
+- KLAS3
+- MULT3
+- TUPY3
+- CURY3
+- IGTI11
+- IGTI3
+- IGTI4 
+</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>positive (94.6500015258789%)</t>
+          <t>positive (95.4000015258789%)</t>
         </is>
       </c>
     </row>
@@ -858,18 +955,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">O fechamento de agências bancárias tradicionais contrasta com a expansão das cooperativas de crédito, como o Sicredi, que cresceu 23,9% em 2023, atingindo R$ 731 bilhões em ativos. O Sicredi abriu agências em 779 municípios, sendo a única instituição financeira presente em mais de 200 deles. Com 8,3 milhões de associados, a cooperativa foca em micro e pequenas empresas, além do agronegócio. Inovação tecnológica, com foco em aplicativos e inteligência artificial, também impulsionam o crescimento, assim como as soluções do Open Finance. O objetivo é alcançar 10 milhões de associados até 2025. 
+          <t xml:space="preserve">O Sicredi cresce no Brasil enquanto bancos tradicionais fecham agências. Com foco em municípios menores, a instituição alcançou R$ 731 bilhões em ativos, um aumento de 23,9% em 2023. O Sicredi abriu agências em 779 cidades nos últimos quatro anos, sendo a única opção em mais de 200 delas. A cooperativa atribui o sucesso à expansão para regiões desatendidas, diversificação de serviços e investimento em tecnologia, como IA e Open Finance. Com 8,3 milhões de associados, o Sicredi mira em 10 milhões até 2025, consolidando sua posição como um dos maiores bancos do país. 
 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O, R</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>negative (72.44999694824219%)</t>
+          <t>negative (92.41000366210938%)</t>
         </is>
       </c>
     </row>
@@ -881,18 +979,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Linklaters assessorou a Africa Finance Corporation (AFC) em dois acordos com Angola e Zâmbia para o desenvolvimento do Corredor do Lobito, projeto ferroviário que ligará o porto angolano à Zâmbia. A AFC, promotora principal, junto a EUA, UE e outros, construirá 800 km de linha, criando uma rota estratégica para exportações da Zâmbia e Congo. O projeto, avaliado em US$ 3 bilhões, visa transportar minerais essenciais, além de produtos agrícolas, impulsionando o comércio regional e global. A Linklaters, com escritórios em Lisboa e Paris, destacou sua experiência em projetos internacionais de grande escala, compromisso com a África e conhecimento do setor mineiro. Os acordos foram assinados em setembro durante a Assembleia Geral da ONU. 
+          <t xml:space="preserve">A Linklaters assessorou a Africa Finance Corporation (AFC) em dois acordos com Angola e Zâmbia para o desenvolvimento do Corredor do Lobito, ligando o porto angolano à Zâmbia por ferrovia. O projeto, com a participação dos EUA, UE e BAD, inclui 800 km de linha férrea, visando o transporte de minerais, produtos agrícolas e o comércio global. 
+A AFC, promotora principal, terá como parceiros Angola, Zâmbia, EUA, UE e BAD. A iniciativa visa criar uma rota estratégica para exportações da Zâmbia e Congo, gerando US$ 3 bilhões em benefícios e 1.250 empregos. 
+A Linklaters, com escritórios em Lisboa e Paris, liderou a assessoria jurídica, destacando a experiência em projetos de infraestrutura e conhecimento do setor mineiro africano. A assinatura dos acordos ocorreu em 24 de setembro, durante a Assembleia Geral da ONU. 
 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EUA, UE, A, US, O, ONU, AFC</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>negative (83.56999969482422%)</t>
+          <t>positive (39.150001525878906%)</t>
         </is>
       </c>
     </row>
@@ -904,18 +1005,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">José Maria Rego, fundador da fintech Raize, assume liderança da área de Consumer Finance do Novo Banco. A nomeação visa impulsionar a transformação e crescimento desta área estratégica, que representa mais de 330 milhões de euros em financiamento anual. Rego, conhecido por sua expertise em fintechs, terá como foco a inovação, a aproximação com o cliente e a otimização do modelo de serviço. A mudança reflete a estratégia do Novo Banco de fortalecer áreas chave com líderes experientes e inovadores. Rego deixou a Raize após a Flexdeal tornar-se acionista majoritária em 2024. 
+          <t xml:space="preserve">O Novo Banco contratou José Maria Rego, ex-CEO da fintech Raize, para liderar a área de Consumer Finance. O objetivo é "transformar" a área, que representa mais de 330 milhões de euros em financiamento anual, tornando-a mais ágil, inovadora e focada no cliente. Rego, conhecido pela sua experiência em fintech, visa aproximar o banco dos clientes através de investimentos em tecnologia e otimização de serviços. A nomeação faz parte de uma reformulação estratégica do Novo Banco iniciada em 2023. 
 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>positive (75.18000030517578%)</t>
+          <t>positive (63.7400016784668%)</t>
         </is>
       </c>
     </row>
@@ -927,18 +1029,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">José Maria Rego, fundador da Raize, assume liderança da área de crédito ao consumo do Novobanco, que representa €330 milhões em financiamento anual. A mudança, parte de uma reforma estratégica, visa tornar o banco mais ágil e focado no cliente através de tecnologia e inovação. Rego pretende aproximar o banco das necessidades dos clientes. Mark Bourke, CEO do Novobanco, celebra a experiência de Rego e o foco na melhor experiência para o cliente. A nomeação segue a chegada de João Paixão Moreira como administrador comercial em maio, reforçando a estrutura do banco. 
+          <t xml:space="preserve">José Maria Rego, fundador da Raize, assume a liderança da área de consumer finance do Novobanco, após deixar o cargo de CEO da fintech vendida para a Flexdeal. A área, com mais de 330 milhões de euros em financiamento a particulares, é estratégica para o banco em sua transformação digital. Rego terá o desafio de investir em tecnologia e inovação para otimizar o modelo de serviço e aproximar o banco dos clientes. A contratação reforça a estrutura do banco, que recentemente nomeou João Paixão Moreira como administrador comercial de retalho. Mark Bourke, CEO do Novobanco, celebra a experiência de Rego para liderar a área e explorar novas oportunidades de crescimento. 
 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A, CEO</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>negative (77.66000366210938%)</t>
+          <t>negative (84.3499984741211%)</t>
         </is>
       </c>
     </row>
@@ -950,18 +1053,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novas regras do open finance facilitam o Pix por aproximação, com lançamento previsto para fevereiro de 2025. O sistema, mais leve e eficiente, impulsionará os pagamentos, segundo o Banco Central. O open finance, que permite o compartilhamento de dados entre instituições, visa aumentar a transparência e competitividade no setor. A ferramenta, que está em consolidação, deve ser impulsionada pela inteligência artificial, proporcionando portabilidade mais fluida.  
+          <t xml:space="preserve">Novas regras do open finance devem facilitar o Pix por aproximação, com lançamento previsto para fevereiro de 2025. O sistema, segundo o Banco Central, será mais leve, eficiente e barato. O open finance, que permite o compartilhamento de dados entre instituições financeiras, visa aumentar a  transparência e a competitividade no setor. A expectativa é que 2024 consolide a ferramenta, impulsionada pela inteligência artificial.  
 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A, O</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>positive (62.56999969482422%)</t>
+          <t>negative (63.119998931884766%)</t>
         </is>
       </c>
     </row>
@@ -973,18 +1077,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Banco Central prevê que o Pix por aproximação, com lançamento em fevereiro de 2025, terá implementação facilitada pelas novas regras do open finance, lançadas em julho. O sistema, mais leve e eficiente, reduzirá custos para consumidores e lojistas. O open finance, que permite o compartilhamento de dados entre instituições financeiras, visa aumentar a  transparência e a competitividade no setor. Segundo o diretor do BC, Otávio Damaso, 2024 será o ano de consolidação da ferramenta, impulsionada pela inteligência artificial e portabilidades mais fluidas. 
+          <t xml:space="preserve">As novas regras do open finance devem facilitar a implementação do Pix por aproximação, com lançamento previsto para fevereiro de 2025. O novo arcabouço regulatório torna o modelo mais leve, eficiente e barato, tanto para o consumidor quanto para o lojista. O open finance, iniciativa do Banco Central para o compartilhamento de dados, visa aumentar a transparência e competitividade no setor financeiro. A expectativa é que 2024 seja o ano de consolidação da ferramenta, impulsionada pelo uso da inteligência artificial e por portabilidades mais fluidas. 
 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O, BC</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>negative (64.37000274658203%)</t>
+          <t>negative (71.16000366210938%)</t>
         </is>
       </c>
     </row>
@@ -996,18 +1101,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Banco Central prevê que as novas regras do open finance facilitarão a implementação do Pix por aproximação em 2025. O sistema, mais leve e eficiente, reduzirá custos para consumidores e lojistas. O open finance, que visa maior controle do consumidor sobre seus dados, impulsionará a portabilidade de crédito e salários. O desafio é ampliar o uso entre pessoas jurídicas, com foco em casos de uso que facilitem a vida do PJ, inspirados em modelos internacionais como o do Reino Unido.  
+          <t xml:space="preserve">As novas regras do open finance facilitarão o Pix por aproximação, com lançamento em fevereiro de 2025. O sistema, mais leve e eficiente, reduz custos e impulsiona os pagamentos, segundo o Banco Central. A iniciativa visa maior controle do consumidor sobre suas finanças, com comparação de produtos, taxas competitivas e transparência no setor.  Em 2024, o foco é a consolidação da ferramenta, impulsionada pela IA, com funcionalidades para portabilidade de crédito e salários. O desafio é ampliar o uso entre pessoas jurídicas, explorando casos de uso e aprendendo com experiências internacionais, como a do Reino Unido. 
 </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O, PJ</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>positive (60.47999954223633%)</t>
+          <t>positive (68.44999694824219%)</t>
         </is>
       </c>
     </row>
@@ -1019,18 +1125,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">As novas regras do open finance, sistema de compartilhamento de dados do Banco Central, devem facilitar a implementação do Pix por aproximação, com lançamento em fevereiro de 2025. O novo arcabouço regulatório torna o modelo mais eficiente e barato, segundo o diretor do BC, Otávio Damaso. O open finance, que permite o compartilhamento de dados entre instituições financeiras, visa aumentar a  transparência e a competitividade no setor.  Damaso acredita que 2024 será o ano de consolidação da ferramenta, impulsionada pela inteligência artificial, com portabilidades mais fluidas. 
+          <t xml:space="preserve">As novas regras do open finance, sistema de compartilhamento de dados do Banco Central, devem facilitar a implementação do Pix por aproximação, com lançamento previsto para fevereiro de 2025. O novo arcabouço regulatório, lançado em julho, tornará o sistema mais leve, eficiente e barato, segundo o diretor de regulação do BC, Otávio Damaso. O open finance visa aumentar a transparência e a competitividade no setor financeiro, possibilitando melhores condições e personalização de ofertas. A expectativa é que 2024 seja o ano de consolidação da ferramenta, impulsionada pelo uso da inteligência artificial, com portabilidades mais fluidas. 
 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O, BC</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>negative (60.720001220703125%)</t>
+          <t>negative (71.7300033569336%)</t>
         </is>
       </c>
     </row>
@@ -1042,18 +1149,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">As transferências inteligentes, funcionalidade do open finance que permite automatizar envios via Pix entre contas do mesmo usuário, ainda estão em fase inicial de adoção devido a dificuldades técnicas. Fintechs como Mercado Pago e Noh relatam problemas na autorização e efetivação das transações por parte de algumas instituições. Apesar dos obstáculos, a promessa de praticidade e organização financeira tem atraído usuários, que podem, por exemplo, abastecer contas conjuntas ou evitar saldos negativos de forma automática. A expectativa é que, com o tempo, as falhas sejam corrigidas e a funcionalidade se popularize. 
+          <t xml:space="preserve">As transferências inteligentes, funcionalidade do open finance que permite movimentar dinheiro automaticamente entre contas do mesmo titular via Pix, ainda enfrentam obstáculos técnicos. Apesar da promessa de praticidade, com a automatização de pagamentos e consolidação de recursos, a instabilidade nas conexões entre instituições financeiras causa frustração e lentidão. Fintechs como Mercado Pago e Noh relatam dificuldades na autorização e conversão de pagamentos, impactando a experiência do usuário. O Banco Central reconhece os desafios iniciais e trabalha para aprimorar a infraestrutura do sistema, buscando maior estabilidade e agilidade nas transferências.
 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>neutral (63.20000076293945%)</t>
+          <t>neutral (92.75%)</t>
         </is>
       </c>
     </row>
@@ -1065,20 +1173,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">A China, famosa por suas megaconstruções, enfrenta um dilema com o Goldin Finance 117, o maior arranha-céu abandonado do mundo. Localizado em Tianjin, o prédio de 597 metros deveria ser o coração de um luxuoso complexo comercial, mas foi atingido por diversos problemas financeiros e pela recessão imobiliária. Iniciado em 2008, o projeto sofreu várias paralisações, deixando a estrutura inacabada, com apenas 3/4 da fachada coberta. 
-O fracasso do Goldin Finance 117 levou o governo chinês a repensar suas políticas de construção. Buscando recuperar a identidade arquitetônica e evitar novas obras faraônicas inacabadas, o governo de Xi Jinping proibiu a construção de prédios com mais de 500 metros de altura. Além disso,  estabeleceu limites para torres acima de 250 metros e impôs rigorosas medidas de segurança para edifícios com mais de 100 metros. 
-O Goldin Finance 117 serve como um lembrete visível dos desafios e excessos da construção desenfreada na China, impactando diretamente as futuras políticas de planejamento urbano do país. 
+          <t xml:space="preserve">O artigo discute a história do Goldin Finance 117, um arranha-céu inacabado na China que se tornou o prédio abandonado mais alto do mundo. Localizado em Tianjin, o projeto ambicioso pretendia ser um marco de 597 metros, parte de um complexo de luxo.
+Iniciado em 2008, o projeto enfrentou múltiplas paralisações devido à recessão no mercado imobiliário chinês. Apesar de ter retomado a construção em diferentes momentos, a obra foi definitivamente interrompida em 2019, com cerca de 3/4 da fachada concluída.
+A incapacidade da construtora de Hong Kong em obter financiamento governamental e a falta de rentabilidade do projeto contribuíram para seu abandono. 
+O fracasso do Goldin Finance 117 levou o governo chinês a implementar novas restrições de altura para edifícios. Agora, estruturas acima de 500 metros são proibidas, enquanto aquelas com mais de 250 metros enfrentam limitações severas. Essa mudança visa recuperar a identidade arquitetônica da China e evitar projetos semelhantes.
 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A, O</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>neutral (90.62999725341797%)</t>
+          <t>neutral (95.58000183105469%)</t>
         </is>
       </c>
     </row>
@@ -1090,18 +1200,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">A CVM anunciou novas regras para portabilidade de investimentos, com foco em desburocratização,  transparência e segurança. A partir de 1º de julho de 2024,  a Resolução CVM 210 permitirá interface digital para solicitação,  escolha do ponto de solicitação, prazos transparentes, acompanhamento em tempo real e  penalidades para atrasos. A medida visa fortalecer o mercado de capitais, empoderar o investidor e  fomentar a competição. As regras  se integrarão ao Open Finance para maior automatização e  prospecção de clientes. 
+          <t xml:space="preserve">A CVM publicou novas regras para portabilidade de investimentos, com foco na desburocratização e simplificação do processo. A partir de julho de 2024, a  portabilidade poderá ser solicitada digitalmente, com acompanhamento em tempo real e prazos mais transparentes. As instituições financeiras serão responsáveis por auxiliar os investidores durante a migração. A CVM destaca a importância da medida para o Open Finance, que permitirá a consulta automatizada de dados e fomentará a concorrência no mercado de capitais. A autarquia também trabalha na integração da portabilidade de investimentos ao Open Finance, visando maior automatização e melhor experiência para o usuário. 
 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A, CVM</t>
+          <t xml:space="preserve">- N/A 
+</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>positive (76.73999786376953%)</t>
+          <t>positive (75.69000244140625%)</t>
         </is>
       </c>
     </row>

--- a/codes/database/Produto.xlsx
+++ b/codes/database/Produto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Sentimentos</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Relatório</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +487,27 @@
           <t>negative (80.87999725341797%)</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Mercado de Debêntures Incentivadas
+**Sentimento:** Negativo (80.88%) - **Atenção:** A classificação de sentimento como "negativo" precisa ser revisada. O texto da notícia é majoritariamente positivo, destacando o crescimento do mercado de debêntures incentivadas.  A classificação automática provavelmente se equivocou, possivelmente influenciada por menções a "restrições" e "limites impostos pelo governo".  É crucial interpretar a notícia com cautela e não se basear apenas na classificação automática do sentimento.
+**Resumo da Notícia:**
+A notícia relata o forte crescimento do mercado de debêntures incentivadas, títulos de renda fixa isentos de imposto de renda, nos últimos anos.  Este crescimento, de 385% entre o primeiro semestre de 2019 e 2024, é atribuído a dois fatores principais:
+* **O "boom" da renda fixa:** O aumento do interesse por investimentos em renda fixa impulsionou a demanda por debêntures.
+* **Restrições a outros títulos isentos:** Limites impostos pelo governo a investimentos em LCIs, LCAs, CRIs e CRAs direcionaram investidores para as debêntures incentivadas como alternativa.
+A notícia destaca a atratividade desses títulos devido ao potencial de retorno e à possibilidade de diversificação de investimentos.  Grandes empresas como Petrobras, Rumo, Eneva e Engie estão entre os principais emissores.
+**Pontos Positivos:**
+* Crescimento expressivo do mercado de debêntures incentivadas.
+* Benefício da isenção de imposto de renda para os investidores.
+* Diversificação de investimentos em infraestrutura.
+* Participação de grandes empresas como emissoras, o que pode transmitir maior segurança aos investidores.
+**Pontos Negativos (Aparentes - Requer Análise):**
+* A notícia menciona "restrições" e "limites impostos pelo governo" a outros títulos isentos, o que pode ter influenciado a classificação negativa do sentimento.  Entretanto, esses limites não são necessariamente negativos, podendo ser parte de uma estratégia de regulação do mercado.  É importante analisar o contexto e os objetivos dessas restrições.
+**Conclusão:**
+Apesar da classificação de sentimento negativo (que deve ser vista com ressalvas), a notícia apresenta um cenário positivo para o mercado de debêntures incentivadas. O crescimento expressivo e o interesse de grandes empresas sugerem um ambiente favorável para esse tipo de investimento.  Recomenda-se uma análise mais aprofundada das "restrições" mencionadas para uma completa compreensão do cenário.
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -506,6 +532,22 @@
           <t>negative (88.31999969482422%)</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Análise de Sentimento da Notícia sobre Rivool Finance
+**Sentimento Predominante:** Negativo (88.32%)
+**Notícia:** "A Rivool Finance lança braço de banco de investimento liderado por Fernando Fegyveres, ex-CEO do Voiter e agora sócio da fintech. A iniciativa amplia a atuação da empresa que conecta investidores do Brasil e do exterior ao mercado de crédito nacional através da tokenização. A novidade promete abrir novas oportunidades para investidores e fortalecer a presença da Rivool no mercado financeiro."
+**Discrepância entre Sentimento e Conteúdo:** Há uma clara discrepância entre o sentimento negativo detectado (88.32%) e o conteúdo da notícia, que é objetivamente positivo. A notícia descreve a expansão dos negócios da Rivool Finance, o lançamento de um novo braço de banco de investimento e a contratação de um executivo experiente.  Todos esses elementos são geralmente considerados positivos para uma empresa.
+**Possíveis Causas da Discrepância:**
+* **Erro na Análise de Sentimento:** O algoritmo utilizado para analisar o sentimento pode ter interpretado erroneamente alguma parte do texto.  A linguagem neutra e factual da notícia pode ter sido confundida com negatividade por algum motivo.
+* **Contexto Não Capturado:** O algoritmo pode não ter acesso a informações contextuais relevantes, como o histórico positivo da Rivool Finance ou a reputação de Fernando Fegyveres.
+* **Viés do Modelo:**  O modelo de análise de sentimento pode ter um viés intrínseco que o leva a classificar notícias sobre o setor financeiro como negativas com mais frequência.
+* **Palavras-chave problemáticas:**  Embora a notícia seja positiva, a presença de palavras como "crédito" e "fintech", que podem estar associadas a riscos financeiros em outros contextos, pode ter influenciado a análise de sentimento.
+**Conclusão:**
+A análise de sentimento negativa (88.32%) para esta notícia parece ser um erro. O conteúdo da notícia é factual e descreve eventos positivos para a Rivool Finance. Recomenda-se revisar o método de análise de sentimento utilizado e considerar o contexto da notícia para evitar interpretações equivocadas.  Uma análise manual do texto confirma o caráter positivo da notícia.
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +572,27 @@
           <t>positive (76.51000213623047%)</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Pix por Aproximação via Google
+**Sentimento:** Positivo (76.51%)
+**Resumo da Notícia:** O Banco Central (BC), liderado por Roberto Campos Neto, anunciou uma parceria com o Google que permitirá em breve o uso do Pix por aproximação através da carteira digital do Google.  A funcionalidade permitirá roteamento para diferentes contas.  O anúncio foi feito durante a apresentação da agenda de tecnologia do BC, que inclui, além do Pix, a internacionalização da moeda, o Open Finance e o Drex. Campos Neto também destacou a inteligência artificial e a monetização de dados como próximos passos, enfatizando a importância da remuneração pela cessão de dados.
+**Análise baseada no Sentimento:**
+O sentimento predominantemente positivo associado a esta notícia é justificável por diversos fatores:
+* **Expansão da usabilidade do Pix:** A integração com a carteira digital do Google amplia significativamente o alcance e a praticidade do Pix, facilitando pagamentos por aproximação para um grande número de usuários.
+* **Inovação e Modernização:** A parceria demonstra o compromisso do BC com a inovação e a modernização do sistema financeiro brasileiro, alinhando-se às tendências globais de pagamentos digitais.
+* **Fortalecimento do Ecossistema Pix:** A inclusão de mais um grande player como o Google reforça o ecossistema do Pix e consolida sua posição como um meio de pagamento central no país.
+* **Perspectivas Futuras Promissoras:** A menção da inteligência artificial e da monetização de dados como próximos passos sugere um futuro ainda mais promissor para o sistema financeiro, com potencial para gerar novas oportunidades e benefícios para os usuários.
+**Pontos a serem observados:**
+Embora a notícia seja majoritariamente positiva, é importante considerar alguns pontos:
+* **Dependência do Google:** A integração com a carteira do Google cria uma dependência da empresa, o que pode levantar questões sobre concorrência e privacidade de dados.
+* **Segurança:**  A segurança do sistema precisa ser rigorosamente testada e garantida para evitar fraudes e proteger os usuários.
+* **Desafios da Monetização de Dados:** A monetização de dados é um tema complexo que envolve questões éticas e regulatórias que precisam ser cuidadosamente avaliadas.
+**Conclusão:**
+A notícia do Pix por aproximação via Google é um desenvolvimento positivo para o sistema financeiro brasileiro, representando um passo importante na direção de uma economia mais digital e inclusiva.  A parceria com o Google tem o potencial de impulsionar ainda mais a adoção do Pix e facilitar o dia a dia dos usuários.  Contudo, é crucial que as questões de segurança, privacidade e regulamentação sejam devidamente  abordadas para garantir um ecossistema financeiro sustentável e benéfico para todos.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -554,6 +617,20 @@
           <t>positive (75.55999755859375%)</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia: Tokenização e o Futuro da Economia
+**Sentimento:** Positivo (75.56%)
+**Resumo da Notícia:** O presidente do Banco Central, Roberto Campos Neto, expressou otimismo em relação à tokenização da economia,  apresentando-a como um avanço tecnológico fundamental, comparável ao Pix, Open Finance e Drex.  Ele defendeu a postura do BC contra a proibição de ativos virtuais, destacando que a restrição eleva os riscos. Além disso, Campos Neto observou o crescimento das stablecoins, atreladas a moedas como o dólar, sugerindo que sua popularidade pode estar ligada à busca por alternativas mais acessíveis para contas em moeda estrangeira.
+**Análise do Sentimento:** O sentimento positivo associado à notícia reflete a visão otimista de Campos Neto sobre o futuro da economia e o papel da tokenização nesse processo. Sua ênfase na inovação e sua defesa dos ativos virtuais reforçam a perspectiva de que a tokenização é vista como uma força motriz para o crescimento e a modernização do sistema financeiro.
+**Pontos Chave:**
+* **Tokenização como pilar da gestão:** A inclusão da tokenização ao lado de iniciativas bem-sucedidas como o Pix sugere que o BC a considera uma prioridade estratégica.
+* **Defesa dos ativos virtuais:** A posição do BC contra a proibição demonstra uma abordagem pró-inovação e uma compreensão dos riscos associados à restrição.
+* **Crescimento das stablecoins:** A observação sobre o crescimento das stablecoins e sua possível relação com a busca por alternativas a contas em moeda estrangeira indica uma atenção do BC às tendências do mercado e suas implicações.
+**Conclusão:**  A notícia transmite uma mensagem positiva sobre o futuro da economia, com a tokenização sendo apresentada como um elemento-chave para o desenvolvimento e a inovação no sistema financeiro. A postura pró-ativa do BC e sua atenção às novas tecnologias, como as stablecoins, reforçam a perspectiva de um ambiente favorável à inovação e à modernização.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -576,6 +653,23 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>negative (84.12999725341797%)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Pix: Custo Operacional vs. Sucesso Inovador
+**Sentimento:** Negativo (84.13%)
+**Contexto:** A notícia aborda o custo operacional do Pix, sistema de pagamentos instantâneos brasileiro, e seu papel no ecossistema de inovação financeira.
+**Pontos Negativos (inferidos pelo sentimento negativo):**
+A notícia, apesar de apresentar o sucesso do Pix em números, parece focar no custo de sua operação. A ênfase no valor de US$ 10 milhões anuais para manter o sistema, mesmo com o alto volume de transações diárias (240 milhões), pode ser interpretada como um ponto negativo. O sentimento negativo possivelmente surge da percepção de alto custo em relação ao retorno, ou da comparação implícita com outras soluções de pagamento.  A menção aos desafios de escalar o Drex, como a necessidade de equilibrar privacidade, programabilidade e descentralização, também pode contribuir para a percepção negativa, sugerindo dificuldades e custos potenciais na implementação da moeda digital.
+**Pontos Positivos (presentes na notícia, apesar do sentimento negativo):**
+* **Sucesso do Pix:** A notícia reconhece o sucesso do Pix com o impressionante número de transações diárias.
+* **Inovação Financeira:** O Pix é destacado como uma porta de entrada para a inovação financeira, juntamente com o Open Finance e o Drex.
+* **Desenvolvimento de Agregadores Financeiros:** A notícia menciona o desenvolvimento de agregadores financeiros que combinam essas tecnologias, o que pode ser visto como um avanço positivo.
+* **Escalabilidade do Drex:** Apesar dos desafios, a notícia indica que soluções estão em desenvolvimento para aumentar a escalabilidade do Drex, sugerindo otimismo em relação ao futuro da moeda digital.
+**Conclusão:**
+Apesar do sentimento negativo detectado, a notícia apresenta um quadro complexo.  Enquanto o custo operacional do Pix é um fator relevante, a notícia também destaca seu inegável sucesso e seu papel fundamental no desenvolvimento do ecossistema de inovação financeira no Brasil. O desafio reside em equilibrar os custos com os benefícios e garantir a escalabilidade das novas tecnologias sem comprometer aspectos cruciais como privacidade e segurança.  A  análise da notícia deve considerar tanto o custo operacional quanto o potencial transformador do Pix e das demais inovações mencionadas.
+</t>
         </is>
       </c>
     </row>
@@ -611,6 +705,27 @@
           <t>positive (83.80000305175781%)</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Projeto Piloto Drex
+**Sentimento:** Positivo (83.8%)
+**Resumo da Notícia:** O Banco Central (BC) está expandindo o projeto piloto Drex, com uma nova chamada para participantes na próxima semana. O Drex visa criar uma infraestrutura tokenizada para o sistema financeiro brasileiro, utilizando blockchain para registrar a moeda e ativos.  A iniciativa foca em testar a eficiência da tokenização em 13 casos de uso, com maior envolvimento dos bancos na resolução de desafios. Segurança cibernética e privacidade são destacadas como fatores críticos para o sucesso. Atualmente, 16 consórcios, incluindo grandes bancos, fintechs e empresas de tecnologia, participam do projeto.
+**Análise baseada no Sentimento:**
+O sentimento predominantemente positivo reflete o otimismo em torno do projeto Drex e seu potencial para modernizar o sistema financeiro brasileiro.  A notícia destaca a expansão do projeto, indicando confiança do BC nos resultados obtidos até o momento.  A ênfase na participação de grandes bancos, fintechs e empresas de tecnologia sugere um ecossistema robusto e colaborativo, reforçando a perspectiva positiva.
+**Pontos Positivos:**
+* **Inovação:** O Drex representa um avanço na modernização do sistema financeiro, utilizando tecnologia blockchain para tokenizar a moeda e ativos.
+* **Eficiência:** O projeto busca aumentar a eficiência das operações financeiras através da tokenização.
+* **Segurança:** A notícia destaca a importância da segurança cibernética e privacidade, indicando a preocupação com a proteção dos dados.
+* **Colaboração:** A participação de diversos players do mercado, como bancos, fintechs e empresas de tecnologia, demonstra um esforço conjunto para o desenvolvimento do projeto.
+* **Expansão:** A nova chamada para participantes indica o progresso e a confiança no projeto.
+**Pontos a serem observados (apesar do sentimento positivo):**
+* A notícia não detalha os desafios específicos enfrentados pelo projeto.  Monitorar os resultados dos testes e os próximos passos do BC será fundamental para avaliar o real impacto do Drex.
+* Embora a segurança seja mencionada, a complexidade da tecnologia blockchain requer constante atenção para mitigar riscos.
+**Conclusão:**
+A notícia transmite uma perspectiva positiva sobre o futuro do Drex e seu potencial para transformar o sistema financeiro brasileiro. A expansão do projeto e a ênfase na colaboração entre diferentes players do mercado são fatores encorajadores.  Acompanhar o desenvolvimento do projeto e seus resultados será crucial para confirmar as expectativas positivas.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -635,6 +750,24 @@
           <t>negative (93.62000274658203%)</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Banco BV em Luxemburgo
+**Sentimento:** Negativo (93.62%)
+**Título da Notícia:** Banco BV inaugura filial em Luxemburgo.
+**Resumo da Notícia:** O Banco BV abriu uma filial em Luxemburgo visando expandir sua atuação internacional e oferecer mais opções de financiamento para clientes corporativos. A filial, com dez funcionários, oferecerá produtos como trade finance, empréstimos internacionais e investimentos.  O objetivo é aumentar a competitividade do banco e centralizar operações em moeda estrangeira.  O BV, uma parceria entre o Grupo Votorantim e o Banco do Brasil, busca expandir sua carteira de crédito.
+**Análise do Sentimento:**
+A classificação de sentimento como "negativo" com alta probabilidade (93.62%) é **surpreendente e provavelmente incorreta**, considerando o conteúdo da notícia. A notícia em si é majoritariamente positiva, descrevendo uma expansão estratégica do Banco BV.  A inauguração de uma filial em Luxemburgo geralmente é vista como um sinal de crescimento e sucesso.
+**Possíveis Razões para a Classificação Incorreta:**
+* **Contexto não considerado:** O algoritmo de análise de sentimento pode ter interpretado palavras-chave como "empréstimos" ou "dívidas" de forma negativa, sem considerar o contexto de financiamento corporativo e expansão de negócios.
+* **Viés do modelo:** O modelo pode ter um viés implícito contra notícias sobre instituições financeiras, associando-as automaticamente a riscos e instabilidade.
+* **Erro no algoritmo:**  Pode haver um erro na implementação ou no treinamento do algoritmo que levou à classificação incorreta.
+* **Ironia ou sarcasmo não detectados:** Embora improvável neste caso, a notícia poderia conter alguma ironia ou sarcasmo sutil que o algoritmo não conseguiu identificar.
+**Recomendação:**
+É **crucial revisar a metodologia e o modelo utilizados para a análise de sentimento**.  A discrepância entre o sentimento detectado e o conteúdo da notícia sugere uma falha significativa no processo.  Uma análise manual por um humano é recomendada para validar a classificação do sentimento e ajustar o modelo para resultados mais precisos.
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -659,6 +792,24 @@
           <t>negative (81.30999755859375%)</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia com Análise de Sentimento
+**Título da Notícia:** Banco BV inaugura filial em Luxemburgo
+**Sentimento Predominante:** Negativo (81.31%)
+**Resumo da Notícia:** O Banco BV expandiu suas operações com a inauguração de uma nova filial em Luxemburgo.  A filial se concentrará em clientes corporativos e de banco de investimento, oferecendo serviços como trade finance, empréstimos internacionais e investimentos. Com uma equipe inicial de dez funcionários, o BV pretende oferecer soluções competitivas no mercado financeiro global.
+**Discrepância entre Sentimento e Conteúdo:**
+Há uma clara discrepância entre o sentimento negativo identificado (81.31%) e o conteúdo da notícia, que é objetivamente positivo. A notícia descreve uma expansão estratégica do Banco BV, representando crescimento e investimento. A abertura de uma filial em um importante centro financeiro como Luxemburgo geralmente é considerada um sinal positivo para uma instituição financeira.
+**Possíveis Causas da Discrepância:**
+A classificação de sentimento negativo provavelmente se deve a um erro na análise do texto pelo modelo de IA.  Algumas possibilidades incluem:
+* **Viés no modelo:** O modelo pode ter sido treinado com dados que associam erroneamente termos relacionados a finanças ou bancos a sentimentos negativos.
+* **Contexto limitado:** O modelo pode não ter compreendido completamente o contexto da notícia, interpretando a menção a empréstimos ou investimentos de forma negativa, sem considerar o contexto mais amplo de expansão e crescimento.
+* **Ironia ou sarcasmo não detectados:** Embora improvável neste caso, o modelo pode ter interpretado erroneamente alguma parte do texto como irônica ou sarcástica.
+**Conclusão:**
+A análise de sentimento automatizada classificou erroneamente esta notícia como negativa. O conteúdo da notícia é factual e descreve uma ação positiva para o Banco BV. É importante revisar e validar as saídas dos modelos de análise de sentimento, especialmente em contextos específicos como notícias financeiras.  A interpretação humana continua sendo crucial para uma avaliação precisa do sentimento.
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -682,6 +833,23 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>neutral (96.61000061035156%)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícias - Mercado Financeiro (Sentimento Neutro)
+**Sentimento predominante:** Neutro (96.61%)
+**Resumo da Notícia:**
+A notícia apresenta um panorama misto do mercado financeiro, com alguns indicadores positivos e outros negativos, resultando em um sentimento geral neutro.  O Ibovespa demonstra um comportamento de alta, porém, encontra resistência em patamares específicos. Sua trajetória futura dependerá da capacidade de superar esses pontos de resistência ou do rompimento de suportes, o que pode levar a diferentes cenários.  O mini-índice e o mini-dólar apresentaram alta, mas também dependem da superação de resistências para confirmar a tendência. O cenário internacional exibe mercados em queda, com exceção do Japão, adicionando um elemento de incerteza ao contexto geral. Dados importantes sobre emprego nos EUA e indicadores de serviços serão divulgados, o que pode influenciar os mercados.
+**Pontos Chave:**
+* **Ibovespa:** Alta com resistência. Cenário de alta depende da superação de 134.355/135.200 pontos, visando 136.000/136.840.  Queda abaixo de 133.110/132.495 pode levar a 131.815/131.490.
+* **Mini-índice:** Alta dependente da superação de 134.490/134.785.
+* **Mini-dólar:** Alta com rompimento de resistência em 5.465/5.478,5. Tendência de alta confirmada com manutenção acima deste nível.
+* **Internacional:** Mercados em queda (exceto Japão), adicionando cautela ao cenário.
+* **Dados futuros:**  Emprego nos EUA e indicadores de serviços podem influenciar os mercados.
+**Conclusão:**
+O sentimento neutro reflete a indefinição do cenário atual. A notícia apresenta possibilidades tanto de alta quanto de baixa, dependendo do comportamento dos indicadores e do rompimento de suportes/resistências.  Acompanhar os dados de emprego nos EUA e os indicadores de serviços será crucial para entender a direção do mercado nos próximos dias. A influência do cenário internacional, majoritariamente negativo, também merece atenção.
+</t>
         </is>
       </c>
     </row>
@@ -711,6 +879,27 @@
           <t>positive (85.56999969482422%)</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícias - Perspectiva Positiva
+**Sentimento Geral:** Positivo (85,57%)
+A notícia em questão apresenta um tom majoritariamente otimista, impulsionado principalmente pela elevação da nota de crédito do Brasil pela agência Moody's. Esse evento é visto como um sinal positivo para o mercado, apesar dos desafios ainda presentes na economia.
+**Principais Pontos Positivos:**
+* **Melhora da Nota de Crédito:** A ação da Moody's sugere uma maior confiança na economia brasileira, o que pode atrair investimentos e melhorar as condições financeiras do país.
+* **Discussão sobre Taxa de Juros Neutra:** A defesa de Roberto Campos Neto por uma taxa de juros neutra menor indica uma possível flexibilização da política monetária no futuro, o que poderia estimular o crescimento econômico.
+* **Fundo para Minerais Críticos:** A parceria entre a Vale e o BNDES para a criação de um fundo para minerais críticos demonstra um investimento estratégico em um setor com grande potencial de crescimento.
+**Pontos Neutros:**
+* **Dados Econômicos:** A menção a dados econômicos como pedidos de seguro-desemprego nos EUA e resultados do Tesouro Nacional apresenta um caráter neutro, pois o impacto desses dados dependerá dos seus valores específicos.
+* **Eleições Municipais:** A reta final das eleições municipais e o último debate em SP são eventos importantes, mas sem um viés positivo ou negativo inerente na notícia.
+* **Regulamentação das Apostas Esportivas:** A discussão sobre a regulamentação das apostas esportivas é um tema neutro, com potencial para gerar impactos positivos ou negativos dependendo da forma como for implementada.
+**Pontos Negativos/Preocupações:**
+* **Cenário Desafiador:** A notícia reconhece que o cenário econômico ainda apresenta desafios, o que modera o otimismo geral.
+* **Tensões no Oriente Médio:** As tensões no Oriente Médio são mencionadas como uma fonte de preocupação para os investidores, representando um risco geopolítico.
+**Conclusão:**
+Apesar das preocupações com o cenário econômico ainda desafiador e as tensões internacionais, a notícia transmite um sentimento predominantemente positivo, ancorado na elevação da nota de crédito do Brasil e na perspectiva de uma possível flexibilização da política monetária.  A criação do fundo para minerais críticos também contribui para o otimismo, sinalizando investimentos e desenvolvimento em setores estratégicos.
+</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -736,6 +925,25 @@
           <t>negative (91.75%)</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Petrobras e Moody's
+**Sentimento predominante:** Negativo (91.75%)
+**Título da Notícia:** Perspectiva da Petrobras melhora, mas rating da Moody's permanece
+**Resumo da Notícia:** A Moody's manteve a classificação de crédito da Petrobras, refletindo uma visão ambivalente sobre a empresa. Apesar da perspectiva positiva, o rating em si permanece inalterado, indicando que a agência ainda enxerga riscos significativos. A notícia é majoritariamente negativa devido à ênfase na manutenção do rating "Ba1", considerado especulativo, apesar da melhora na perspectiva.  A Moody's justifica essa posição pela potencial interferência política na estatal, o que gera incerteza quanto à sua trajetória futura.
+**Pontos Positivos:**
+* Melhora na perspectiva para positiva, alinhada à perspectiva da nota soberana do Brasil.
+* Reconhecimento das fortes métricas financeiras da Petrobras e baixo risco de default.
+* Confiança na capacidade da empresa de navegar no cenário econômico atual.
+**Pontos Negativos:**
+* Manutenção do rating "Ba1" (especulativo), indicando a permanência de riscos consideráveis.
+* Preocupação com a influência política nas decisões da Petrobras, limitando seu rating.  Este é o principal fator que contribui para o sentimento negativo.
+* A notícia destaca a estabilidade, que em um contexto de rating "Ba1", não representa uma situação ideal.
+**Conclusão:**
+A notícia, embora apresente uma melhora na perspectiva, é predominantemente negativa devido à manutenção do rating "Ba1" pela Moody's. A preocupação com a interferência política na Petrobras continua sendo um fator crucial que impede uma avaliação mais positiva.  A melhora na perspectiva sugere uma possível elevação do rating no futuro, mas a concretização disso dependerá da capacidade da empresa em demonstrar maior independência e blindagem contra pressões políticas. A ênfase no baixo risco de default e nas fortes métricas financeiras busca equilibrar a narrativa, mas a mensagem central permanece cautelosa.
+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -758,6 +966,23 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>negative (78.9800033569336%)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Análise de Sentimento de Notícia
+**Título da Notícia (Inferido):** CFOs brasileiros priorizam emissão de títulos verdes.
+**Sentimento Predominante:** Negativo (78.98%)
+**Resumo da Notícia:** A notícia aborda a crescente tendência entre os Diretores Financeiros (CFOs) no Brasil de priorizar a emissão de títulos verdes, como "green bonds" e "sustainability bonds", dentro de suas estratégias ESG.  Essa prática coloca-se como a segunda maior prioridade, à frente de investimentos em economia circular e energia limpa.  Empresas como Energisa e Natura já aderiram a essa iniciativa, destinando os recursos captados para projetos sustentáveis. Apesar do interesse crescente, o mercado brasileiro ainda está em desenvolvimento nesse tipo de captação. A implementação de normas internacionais como IFRS S1 e S2 é vista como um fator que impulsionará o avanço dessa estratégia.
+**Análise da Discrepância entre Sentimento e Conteúdo:**
+A notícia, em seu conteúdo factual, apresenta um tom majoritariamente positivo, destacando uma tendência promissora no mercado financeiro brasileiro em relação à sustentabilidade. A classificação de sentimento como "negativo" (78.98%) é, portanto, **incongruente** com a narrativa apresentada.  
+**Possíveis Causas da Classificação Incorreta:**
+* **Contexto não capturado:** O modelo de análise de sentimento pode ter interpretado erroneamente alguma parte do texto, possivelmente frases como "o mercado brasileiro ainda busca maturidade",  a qual, apesar de descrever um estado atual, não expressa negatividade em relação à tendência.
+* **Viés do modelo:**  O modelo pode ter um viés implícito que associa termos financeiros ou regulatórios (como "normas internacionais", "IFRS") a conotações negativas, mesmo quando o contexto é positivo.
+* **Foco na falta de maturidade:**  A ênfase na  falta de maturidade do mercado brasileiro pode ter sido interpretada pelo modelo como um aspecto negativo,  ofuscado os pontos positivos da notícia.
+**Recomendação:**
+É necessário revisar a classificação de sentimento atribuída à notícia. O conteúdo, em sua essência, retrata uma evolução positiva no mercado, e a classificação como "negativa" distorce essa percepção. Sugere-se a reavaliação utilizando um modelo de análise de sentimento diferente ou com ajustes de parâmetros para melhor capturar o contexto da notícia.  Uma análise manual por um humano é sempre recomendada para validar a classificação automática.
+</t>
         </is>
       </c>
     </row>
@@ -796,6 +1021,19 @@
           <t>positive (95.19000244140625%)</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Temporada de Resultados 3T24 Ibovespa
+**Sentimento:** Positivo (95,19%)
+**Resumo da Notícia:** A notícia informa sobre a divulgação do calendário de resultados do 3º trimestre de 2024 para as empresas listadas no Ibovespa.  A Quantum Finance disponibilizou as datas de divulgação dos formulários DFP e ITR,  documentos obrigatórios para companhias abertas. Algumas das empresas mencionadas com suas respectivas datas de divulgação são: Multiplan, Suzano e Vale (24/10), Usiminas (25/10) e Auren (30/10). A divulgação completa se estende até 31/10.
+**Análise do Sentimento:** O sentimento predominantemente positivo associado a esta notícia pode ser atribuído a diversos fatores:
+* **Transparência e Previsibilidade:** A divulgação do calendário oferece transparência ao mercado, permitindo que investidores se preparem para analisar os resultados das empresas.  A previsibilidade contribui para a estabilidade e reduz incertezas.
+* **Expectativa de Bons Resultados:**  A antecipação da divulgação dos resultados pode indicar confiança das empresas em relação ao seu desempenho no trimestre.  Embora a notícia em si não aborde os resultados esperados, o simples ato de divulgar o calendário com antecedência pode ser interpretado como um sinal positivo.
+* **Interesse do Mercado:**  A temporada de resultados é um período importante para o mercado financeiro, pois permite avaliar o desempenho das empresas e tomar decisões de investimento mais informadas. A notícia atende ao interesse do mercado por essas informações.
+**Conclusão:** A notícia sobre a divulgação do calendário de resultados do 3T24 do Ibovespa é recebida com um sentimento positivo, refletindo a importância da transparência, previsibilidade e o interesse do mercado por informações que impactam as decisões de investimento.  A divulgação antecipada do calendário pode ser vista como um sinal de confiança por parte das empresas listadas no índice.
+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -819,6 +1057,25 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>positive (54.400001525878906%)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícias: Investimentos Chineses em Energia Limpa
+**Sentimento Geral:** Positivo (54.4%)
+**Resumo:**
+A notícia descreve um aumento significativo nos investimentos chineses em tecnologias de energia limpa no exterior, ultrapassando US$ 100 bilhões desde o início de 2023. Este movimento é impulsionado pela necessidade de contornar barreiras comerciais e expandir a presença global da China neste setor.  Apesar do sentimento positivo associado ao investimento em si, a notícia também destaca tensões comerciais e preocupações com práticas desleais.
+**Pontos Positivos:**
+* **Investimento maciço em energia limpa:** O volume de investimento demonstra um compromisso significativo com o desenvolvimento e a disseminação de tecnologias de energia limpa, o que pode contribuir para a transição energética global e a mitigação das mudanças climáticas.
+* **Expansão do mercado global de energia limpa:** A busca por mercados de exportação por parte da China pode levar a uma maior disponibilidade e acessibilidade de tecnologias limpas em diferentes países.
+**Pontos Negativos/Neutros a serem considerados:**
+* **Tensões Comerciais:** A notícia evidencia preocupações de países como EUA, Canadá e União Europeia com práticas comerciais desleais da China e a possível imposição de tarifas de importação.  Este cenário pode gerar conflitos comerciais e dificultar a cooperação internacional em energia limpa.
+* **Dependência da China:** A dominância chinesa na produção de tecnologias-chave como painéis solares, baterias de lítio e veículos elétricos levanta questões sobre a dependência global da China e a segurança das cadeias de suprimentos.
+* **Excesso de Capacidade Produtiva:** A projeção de que dois terços da capacidade de tecnologia limpa da China excederá a demanda interna até 2030 sugere um potencial para  "dumping" (venda abaixo do custo)  em mercados internacionais, o que pode prejudicar a indústria de energia limpa em outros países.
+* **Argumento da China:** A alegação de que as restrições comerciais prejudicam os esforços globais de combate às mudanças climáticas precisa ser analisada com cautela, considerando o contexto das preocupações com práticas comerciais desleais.
+**Conclusão:**
+Embora o investimento chinês em energia limpa seja um desenvolvimento positivo em termos de transição energética,  a notícia destaca a complexidade do cenário geopolítico e as tensões comerciais subjacentes.  É crucial que haja um equilíbrio entre o estímulo à inovação e à disseminação de tecnologias limpas e a garantia de um mercado internacional justo e competitivo.  Acompanhar os desdobramentos dessas tensões comerciais e o impacto nas políticas de energia limpa será fundamental para entender o futuro do setor.
+</t>
         </is>
       </c>
     </row>
@@ -865,6 +1122,23 @@
           <t>positive (86.25%)</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícias - Sentimento Positivo
+**Título da Notícia:** Fundos Multimercado Apostam em Gigantes da Bolsa Brasileira
+**Sentimento:** Positivo (86.25%)
+**Resumo:**
+A notícia apresenta um panorama positivo do mercado brasileiro, destacando a preferência dos fundos multimercado por empresas consolidadas e de alta liquidez, como Vale, Petrobras e Itaú. Essa estratégia conservadora, impulsionada pela busca por segurança e agilidade nas negociações, reflete a confiança na solidez dessas empresas e na estabilidade do mercado. A presença de algumas empresas "fora do radar", como Lojas Renner e Allos, adiciona um toque de diversificação estratégica, indicando otimismo em relação a outras oportunidades no mercado.
+**Pontos Positivos:**
+* **Confiança na economia brasileira:** A aposta em empresas como Vale e Petrobras, ligadas a commodities, sugere uma visão positiva sobre o desempenho da economia brasileira.
+* **Estabilidade e segurança:** A preferência por empresas de alta liquidez demonstra uma busca por investimentos seguros e estáveis, indicando aversão ao risco e uma percepção de solidez no mercado.
+* **Diversificação estratégica:** A inclusão de empresas "fora do radar" no portfólio dos fundos multimercado demonstra uma busca por oportunidades de crescimento, mesmo dentro de uma estratégia conservadora.
+* **Liquidez do mercado:** A notícia reforça a alta liquidez das ações das principais empresas da bolsa brasileira, o que facilita as operações dos fundos e contribui para a estabilidade do mercado.
+**Conclusão:**
+O sentimento positivo da notícia reflete a confiança dos investidores no mercado brasileiro, com foco em empresas consolidadas e de alta liquidez. A estratégia conservadora dos fundos multimercado, combinada com uma diversificação estratégica, indica otimismo e busca por oportunidades de crescimento em um ambiente de relativa estabilidade.  A notícia sugere um cenário favorável para investidores que buscam segurança e retornos consistentes.
+</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -887,6 +1161,22 @@
       <c r="D17" t="inlineStr">
         <is>
           <t>positive (81.5999984741211%)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Análise de Sentimento da Notícia sobre Deolane Bezerra
+**Título da Notícia (Inferido):** Impacto da Prisão de Deolane Bezerra na Discussão sobre Reputação e Carreira.
+**Sentimento predominante:** Positivo (81.6%)
+**Resumo da Notícia:** A notícia aborda a prisão da influenciadora Deolane Bezerra como um ponto de partida para discutir a importância da reputação para carreiras, especialmente de executivos e influenciadores.  Especialistas argumentam que uma imagem pública sólida é fundamental para influenciar decisões de compra e progressão na carreira.  A notícia enfatiza a necessidade de transparência e responsabilidade na construção de uma reputação positiva, especialmente na era digital.
+**Análise do Sentimento:** Embora a notícia trate de um evento negativo (a prisão de uma influenciadora), o sentimento detectado como positivo provavelmente se deve ao enfoque no aprendizado e na construção de uma reputação sólida. A notícia não se concentra nos detalhes negativos da prisão, mas sim nas lições que podem ser extraídas dela para o público em geral. A ênfase na importância da reputação, transparência e responsabilidade contribui para a classificação positiva do sentimento.  A notícia utiliza o evento como um exemplo para promover boas práticas de gestão de imagem, o que é visto como algo construtivo.
+**Possíveis motivos para o sentimento positivo:**
+* **Enfoque na construção da reputação:** A notícia foca em como construir e manter uma boa reputação, o que é um aspeto positivo.
+* **Menção a especialistas:** A citação de especialistas confere credibilidade e reforça a mensagem sobre a importância da reputação.
+* **Tom informativo e educativo:**  A notícia assume um tom informativo e educativo, em vez de sensacionalista.
+* **Ausência de detalhes negativos:** A notícia evita se aprofundar nos aspectos negativos da prisão em si.
+**Observação:** É importante notar que, embora o sentimento geral seja positivo, o contexto da notícia (a prisão de uma figura pública) é negativo. A análise de sentimento, neste caso, reflete a maneira como a notícia foi escrita e o seu foco, e não necessariamente o evento em si.
+</t>
         </is>
       </c>
     </row>
@@ -946,6 +1236,26 @@
           <t>positive (95.4000015258789%)</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Sentimento Positivo
+**Título da Notícia (Inferido):** Chuva de Dividendos em Outubro na Bolsa Brasileira
+**Sentimento:** Positivo (95.4%)
+**Resumo da Notícia:** A notícia apresenta um panorama otimista para investidores da bolsa brasileira em outubro, com a previsão de distribuição de dividendos e Juros sobre Capital Próprio (JCP) por pelo menos 25 empresas. Destacam-se os pagamentos da JBS e do Banese.  A notícia reforça a importância de consultar o calendário completo para detalhes sobre valores, datas e tipos de proventos, incentivando os investidores a aproveitarem essa oportunidade.
+**Pontos Positivos:**
+* **"Chuva de dividendos":** A expressão utilizada transmite abundância e oportunidade para os investidores.
+* **Menção a empresas de grande porte:** A citação de empresas como JBS, Banese, Bradesco, Itaú, B3 e Tim reforça a credibilidade e a importância da notícia.
+* **Valores específicos:** A menção aos valores por ação da JBS e Banese (R$2 e até R$1,26, respectivamente) torna a notícia mais concreta e atrativa.
+* **Lembrete sobre isenção de IR:** A informação sobre a isenção de Imposto de Renda para dividendos e a tributação de JCP demonstra preocupação com a clareza e a completude da informação.
+* **Incentivo à ação:** A frase "Investidores atentos podem aproveitar a 'chuva de dividendos' de outubro" encoraja os leitores a buscarem mais informações e a participarem do mercado.
+**Pontos a Considerar:**
+* **Ausência de informações sobre riscos:** A notícia foca apenas nos aspectos positivos, sem mencionar os riscos inerentes ao mercado de ações.  Um relatório mais completo abordaria também a volatilidade do mercado.
+* **Público-alvo:** A notícia assume um certo nível de conhecimento sobre o mercado financeiro, utilizando termos como "JCP" e "proventos".  Poderia ser mais acessível a um público leigo com breves explicações desses termos.
+**Conclusão:**
+A notícia apresenta um cenário positivo para o mercado de ações em outubro, com ênfase na distribuição de dividendos e JCP. O tom otimista e a menção a empresas de renome contribuem para o sentimento positivo.  No entanto, para uma análise mais completa, seria importante considerar também os riscos envolvidos e adaptar a linguagem para um público mais amplo.
+</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -968,6 +1278,21 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>negative (92.41000366210938%)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia com Análise de Sentimento
+**Título da Notícia:** Sicredi em Crescimento
+**Sentimento Predominante:** Negativo (92.41%)
+**Resumo da Notícia:** A notícia descreve o crescimento expressivo do Sicredi no Brasil, contrastando com o fechamento de agências de bancos tradicionais.  São destacados o aumento dos ativos, a expansão para municípios menores (sendo a única instituição financeira em muitos deles), a diversificação de serviços e o investimento em tecnologia. A cooperativa também projeta um aumento significativo no número de associados.
+**Discrepância entre Sentimento e Conteúdo:** Há uma clara discrepância entre o sentimento classificado (negativo) e o conteúdo da notícia, que é majoritariamente positivo. A notícia relata o sucesso e a expansão do Sicredi, o que normalmente seria associado a um sentimento positivo.
+**Possíveis Causas da Discrepância:**
+* **Contexto:** O classificador de sentimento pode ter interpretado o trecho sobre o fechamento de agências de bancos tradicionais como um indicador negativo para o setor financeiro como um todo, influenciando a classificação geral da notícia, mesmo que o foco seja o sucesso do Sicredi.
+* **Palavras-chave:**  A presença de termos como "fechamento" pode ter contribuído para a classificação negativa, mesmo que estejam contextualizados dentro de uma narrativa de crescimento do Sicredi.
+* **Modelo de análise de sentimento:** O modelo utilizado pode ter limitações na compreensão da nuance e do contexto da notícia, levando a uma classificação imprecisa.
+**Conclusão:** Embora o classificador tenha indicado um sentimento negativo, a análise do conteúdo da notícia revela um tom positivo, destacando o crescimento e o sucesso do Sicredi. A discrepância sugere uma possível falha na interpretação do contexto por parte do modelo de análise de sentimento.  É importante revisar a classificação e, se necessário, refinar o modelo para evitar interpretações equivocadas.
+</t>
         </is>
       </c>
     </row>
@@ -996,6 +1321,24 @@
           <t>positive (39.150001525878906%)</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Corredor do Lobito
+**Sentimento:** Positivo (39.15%)
+**Resumo da Notícia:** A notícia descreve o desenvolvimento do Corredor do Lobito, um projeto de infraestrutura crucial conectando Angola e Zâmbia por ferrovia. A iniciativa, liderada pela Africa Finance Corporation (AFC) com o apoio de parceiros internacionais como EUA, UE e Banco Africano de Desenvolvimento (BAD), visa impulsionar o comércio e o desenvolvimento econômico na região.
+**Pontos Positivos:**
+* **Desenvolvimento de Infraestrutura:** A construção de 800 km de ferrovia representa um investimento significativo em infraestrutura, crucial para o desenvolvimento econômico de Angola e Zâmbia.  A notícia destaca os benefícios econômicos esperados, como a geração de US$ 3 bilhões e a criação de 1.250 empregos.
+* **Parcerias Internacionais:** O envolvimento de EUA, UE e BAD demonstra o reconhecimento da importância estratégica do projeto e a confiança na sua viabilidade.  A colaboração internacional fortalece a capacidade de execução e o potencial de sucesso do Corredor do Lobito.
+* **Impulso ao Comércio:** O corredor facilitará o transporte de minerais, produtos agrícolas e o comércio global, conectando a região a mercados internacionais e promovendo o crescimento econômico.  A rota estratégica para exportações da Zâmbia e Congo representa uma oportunidade significativa para o desenvolvimento desses países.
+* **Assessoria Jurídica de Alta Qualidade:** A participação da Linklaters, uma firma de advocacia internacional renomada, demonstra a seriedade e o profissionalismo do projeto. A experiência da Linklaters em projetos de infraestrutura e no setor mineiro africano reforça a confiança na sua execução eficiente.
+**Pontos a serem considerados (apesar do sentimento positivo):**
+* A notícia não detalha os desafios potenciais do projeto, como questões ambientais, desapropriações ou dificuldades logísticas.  Uma análise mais completa deve considerar esses aspectos.
+*  A porcentagem de sentimento positivo, embora considerável, não atinge um nível extremamente alto.  Isso pode indicar a necessidade de mais informações para uma avaliação completa do impacto do projeto.
+**Conclusão:**
+A notícia apresenta um panorama positivo do desenvolvimento do Corredor do Lobito, destacando os benefícios econômicos e o potencial de transformação para a região. A forte parceria internacional e o envolvimento de instituições financeiras sólidas contribuem para a perspectiva otimista.  No entanto, análises futuras devem considerar os desafios inerentes a projetos de grande escala e buscar informações adicionais sobre os impactos sociais e ambientais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1020,6 +1363,27 @@
           <t>positive (63.7400016784668%)</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Novo Banco e Consumer Finance
+**Sentimento Geral:** Positivo (63.74%)
+**Título da Notícia (Sugestão):** Novo Banco Aposta em Inovação na Área de Consumer Finance com Novo Líder
+**Resumo da Notícia:**
+O Novo Banco demonstra otimismo e foco na modernização ao nomear José Maria Rego, ex-CEO da fintech Raize, como líder da área de Consumer Finance.  A instituição financeira busca transformar essa área, que movimenta mais de 330 milhões de euros anualmente, com o objetivo de torná-la mais ágil, inovadora e centrada no cliente. A experiência de Rego em fintechs sugere uma forte aposta em tecnologia e otimização de serviços para aproximar o banco dos seus clientes. Essa nomeação se insere no contexto de uma reformulação estratégica mais ampla que o Novo Banco vem implementando desde 2023.
+**Pontos Positivos:**
+* **Inovação e Agilidade:** A contratação de um profissional com experiência em fintech sinaliza a intenção do Novo Banco de incorporar práticas inovadoras e ágeis ao seu setor de Consumer Finance.
+* **Foco no Cliente:** A notícia destaca a importância do cliente na nova estratégia, sugerindo uma melhoria na experiência e na oferta de serviços.
+* **Investimento em Tecnologia:** A menção a investimentos em tecnologia reforça o compromisso com a modernização e a busca por soluções mais eficientes.
+* **Crescimento e Reformulação:** A movimentação financeira significativa da área de Consumer Finance (330 milhões de euros) e a menção à reformulação estratégica indicam um ambiente de crescimento e adaptação às novas demandas do mercado.
+**Pontos a se Observar (apesar do sentimento positivo):**
+* **Desafios da Integração:** A integração de uma cultura fintech em uma estrutura bancária tradicional pode apresentar desafios.  O sucesso dependerá da capacidade do Novo Banco em se adaptar e abraçar as mudanças propostas por Rego.
+* **Concorrência:** O mercado de Consumer Finance é competitivo. A estratégia do Novo Banco precisará ser robusta para se destacar e atrair clientes.
+* **Detalhes da Estratégia:** A notícia fornece uma visão geral da mudança, mas detalhes específicos sobre a estratégia de Rego ainda não estão claros.  Acompanhar os próximos passos será importante para avaliar o impacto real dessa nomeação.
+**Conclusão:**
+A notícia transmite uma mensagem positiva sobre o futuro do Novo Banco e sua área de Consumer Finance. A contratação de José Maria Rego e o foco em inovação, tecnologia e cliente demonstram um esforço para se manter competitivo e relevante no mercado.  O sucesso dessa estratégia dependerá da execução e da capacidade do banco em se adaptar às mudanças necessárias.
+</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1044,6 +1408,29 @@
           <t>negative (84.3499984741211%)</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Análise de Sentimento da Notícia sobre José Maria Rego e Novobanco
+**Sentimento Predominante:** Negativo (84.35%)
+**Análise da Notícia:**
+A notícia, apesar de descrever uma mudança de liderança e planos de investimento em tecnologia e inovação, foi classificada como majoritariamente negativa pelo modelo de análise de sentimento. Essa classificação, aparentemente contraditória com o conteúdo factualmente neutro ou até positivo da notícia, requer uma investigação mais aprofundada para entender as potenciais razões.
+**Possíveis Causas da Classificação Negativa:**
+A análise de sentimento muitas vezes se concentra em nuances linguísticas e contextuais que podem não ser imediatamente aparentes.  Alguns fatores que poderiam ter contribuído para a classificação negativa incluem:
+* **Menção da venda da Raize:** Embora a notícia em si seja sobre a nomeação de Rego no Novobanco, a menção da venda da Raize para a Flexdeal pode ter sido interpretada negativamente. Dependendo do contexto da venda (não fornecido na notícia), pode haver conotações de dificuldades financeiras, fusões indesejadas ou outros fatores negativos associados à transação.
+* **Contexto de mercado:** O setor financeiro pode estar passando por um período de instabilidade ou incerteza, o que influencia a percepção de notícias sobre mudanças de liderança, mesmo que em si sejam neutras. A notícia, inserida nesse contexto, pode ser interpretada como mais um sinal de volatilidade.
+* **Uso de linguagem específica:**  Palavras ou frases específicas, mesmo que aparentemente neutras, podem ter conotações negativas para o modelo de análise de sentimento. Por exemplo, a ênfase na "transformação digital" pode ser interpretada como uma resposta a problemas ou dificuldades existentes.
+* **Viés do modelo:**  O modelo de análise de sentimento pode ter um viés implícito que leva à classificação negativa de notícias sobre o setor financeiro ou mudanças de liderança.
+**Recomendações:**
+Para entender melhor a classificação negativa, é recomendável:
+* **Análise manual da notícia:** Uma leitura atenta por um humano pode identificar nuances e contextos não capturados pelo modelo.
+* **Comparação com outras notícias:** Analisar o sentimento de outras notícias sobre o mesmo assunto pode ajudar a identificar padrões e tendências.
+* **Investigação do contexto da venda da Raize:**  Entender as circunstâncias da venda pode fornecer insights importantes para interpretar a classificação negativa.
+* **Calibração do modelo:** Se a classificação negativa for considerada inadequada, o modelo de análise de sentimento pode ser recalibrado para levar em conta as especificidades do setor financeiro e notícias corporativas.
+**Conclusão:**
+Embora o modelo tenha classificado a notícia como negativa, a interpretação requer cautela. A análise adicional e contextualização são cruciais para entender as razões da classificação e garantir uma interpretação precisa do sentimento expresso na notícia.
+</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1068,6 +1455,28 @@
           <t>negative (63.119998931884766%)</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Análise de Sentimento de Notícia sobre Open Finance
+**Sentimento Predominante:** Negativo (63.12%)
+**Notícia:** "Novas regras do open finance devem facilitar o Pix por aproximação, com lançamento previsto para fevereiro de 2025. O sistema, segundo o Banco Central, será mais leve, eficiente e barato. O open finance, que permite o compartilhamento de dados entre instituições financeiras, visa aumentar a  transparência e a competitividade no setor. A expectativa é que 2024 consolide a ferramenta, impulsionada pela inteligência artificial."
+**Discrepância entre Sentimento e Conteúdo:**
+A notícia apresenta um conteúdo objetivamente positivo, descrevendo os benefícios esperados da implementação de novas regras do open finance, como a facilitação do Pix por aproximação, maior eficiência, redução de custos, aumento da transparência e competitividade no setor financeiro.  A previsão de consolidação da ferramenta em 2024, impulsionada pela inteligência artificial, também reforça o caráter positivo da notícia.
+Portanto, a classificação de sentimento como "negativo" (63.12%) apresenta uma **incongruência** com o conteúdo da notícia.  É crucial investigar a causa dessa discrepância. Algumas hipóteses são:
+* **Contexto não considerado:** O modelo de análise de sentimento pode ter sido influenciado por um contexto externo não fornecido, como notícias negativas prévias sobre open finance ou o setor financeiro em geral.
+* **Viés do modelo:** O modelo pode apresentar um viés que o leva a classificar erroneamente notícias sobre determinados temas, como finanças ou tecnologia.
+* **Falha na interpretação da linguagem:** O modelo pode ter interpretado erroneamente alguma expressão ou construção gramatical presente na notícia, levando à classificação negativa.
+* **Erro na pontuação:** A pontuação de 63.12% para o sentimento negativo pode ser um erro de cálculo ou de apresentação do resultado.
+**Recomendações:**
+* **Revisar o modelo de análise de sentimento:**  Verificar se o modelo está adequadamente treinado para lidar com notícias sobre o tema específico e se apresenta vieses.
+* **Fornecer mais contexto ao modelo:** Incluir informações adicionais que possam auxiliar na interpretação da notícia, como o histórico de notícias sobre o assunto.
+* **Analisar manualmente a notícia:** Realizar uma leitura atenta da notícia para identificar possíveis causas da discrepância e validar a classificação do modelo.
+* **Utilizar diferentes modelos de análise de sentimento:** Comparar os resultados obtidos por diferentes modelos para identificar possíveis inconsistências.
+**Conclusão:**
+A classificação de sentimento como negativo para a notícia em questão é inconsistente com o seu conteúdo.  É necessário investigar as possíveis causas dessa discrepância e realizar ajustes no modelo ou no processo de análise para garantir resultados mais precisos.
+</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1092,6 +1501,23 @@
           <t>negative (71.16000366210938%)</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Análise de Sentimento de Notícia sobre Open Finance
+**Sentimento Predominante:** Negativo (71.16%)
+**Notícia:** "As novas regras do open finance devem facilitar a implementação do Pix por aproximação, com lançamento previsto para fevereiro de 2025. O novo arcabouço regulatório torna o modelo mais leve, eficiente e barato, tanto para o consumidor quanto para o lojista. O open finance, iniciativa do Banco Central para o compartilhamento de dados, visa aumentar a transparência e competitividade no setor financeiro. A expectativa é que 2024 seja o ano de consolidação da ferramenta, impulsionada pelo uso da inteligência artificial e por portabilidades mais fluidas."
+**Análise da Discrepância:**
+A notícia em si apresenta um tom majoritariamente positivo, destacando os benefícios do open finance e do Pix por aproximação.  Fala de maior eficiência, redução de custos, transparência e competitividade.  Portanto, a classificação de sentimento como "negativo" (71.16%) é contraditória e sugere uma possível falha na análise de sentimento automatizada.
+**Hipóteses para o Sentimento Negativo (apesar do conteúdo positivo da notícia):**
+* **Contexto externo:** O modelo de análise de sentimento pode ter sido influenciado por notícias negativas relacionadas ao open finance ou ao sistema financeiro em geral, que circularam no período da análise.
+* **Viés do modelo:**  O modelo pode ter um viés implícito que o leva a classificar notícias sobre regulamentação financeira como negativas, mesmo que o conteúdo seja positivo.
+* **Interpretação equivocada de termos:**  O modelo pode ter interpretado erroneamente certos termos da notícia, como "arcabouço regulatório" ou "compartilhamento de dados", associando-os a conotações negativas como burocracia ou invasão de privacidade.
+* **Ironia ou sarcasmo (improvável):**  Embora menos provável neste caso, o modelo pode ter identificado, erroneamente, ironia ou sarcasmo no texto.
+**Conclusão:**
+A classificação de sentimento como "negativo" para esta notícia é inconsistente com o conteúdo apresentado. É necessário revisar o modelo de análise de sentimento utilizado e investigar as possíveis causas da discrepância. Recomenda-se realizar testes adicionais e ajustes no modelo para garantir maior precisão na análise de notícias futuras.  Uma análise manual do texto confirma o tom positivo e os benefícios esperados com a implementação das novas tecnologias.
+</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1116,6 +1542,26 @@
           <t>positive (68.44999694824219%)</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Open Finance
+**Sentimento:** Positivo (68.45%)
+**Título da Notícia:** Avanços do Open Finance prometem facilitar pagamentos e impulsionar controle financeiro do consumidor.
+**Resumo:** A notícia apresenta uma perspectiva otimista sobre o futuro do open finance no Brasil, destacando os benefícios esperados com as novas regras e funcionalidades planejadas. O tom positivo é justificado pela ênfase nas melhorias para o consumidor, como a facilitação do Pix por aproximação, redução de custos, maior transparência e controle financeiro, além do potencial da IA para impulsionar a ferramenta.
+**Pontos Positivos:**
+* **Pix por aproximação mais fácil:** A simplificação do processo de pagamento por aproximação a partir de fevereiro de 2025 é um ponto positivo para a usabilidade e conveniência do sistema.
+* **Redução de custos e maior eficiência:** A notícia destaca a redução de custos e o aumento da eficiência proporcionados pelo novo sistema, o que beneficia tanto consumidores quanto instituições financeiras.
+* **Maior controle financeiro para o consumidor:** A ênfase no controle do consumidor sobre suas finanças, com a possibilidade de comparação de produtos e taxas competitivas, reforça o aspecto positivo da notícia.
+* **Transparência no setor financeiro:** A busca por maior transparência no setor financeiro é outro ponto positivo, contribuindo para a confiança do consumidor e a competição saudável entre as instituições.
+* **Impulso da IA:** A utilização da inteligência artificial para impulsionar o open finance em 2024, com funcionalidades como portabilidade de crédito e salários, é vista como um avanço promissor.
+**Pontos a Considerar (embora a notícia seja predominantemente positiva):**
+* **Desafio da adesão de pessoas jurídicas:** A notícia menciona o desafio de ampliar o uso do open finance entre pessoas jurídicas, indicando que ainda há trabalho a ser feito para a completa adoção da ferramenta.  A notícia não detalha os obstáculos específicos para a adesão de PJs, o que poderia ser explorado em futuras análises.
+* **Dependência de cronograma:** O sucesso das iniciativas descritas depende do cumprimento do cronograma estabelecido, como o lançamento do Pix por aproximação em fevereiro de 2025.  Atrasos poderiam impactar a percepção positiva do open finance.
+**Conclusão:**
+A notícia demonstra um sentimento positivo em relação ao futuro do open finance, com foco nos benefícios para o consumidor e na modernização do sistema financeiro. Embora existam desafios a serem superados, a perspectiva geral é de otimismo e  avanço tecnológico no setor.  O monitoramento contínuo da implementação das novas regras e funcionalidades será crucial para avaliar o real impacto do open finance na economia e na vida dos brasileiros.
+</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1140,6 +1586,34 @@
           <t>negative (71.7300033569336%)</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Análise de Sentimento de Notícia sobre Open Finance
+**Sentimento Predominante:** Negativo (71.73%)
+**Título da Notícia (Sugestão):**  Apesar dos avanços, Open Finance enfrenta desafios para implementação do Pix por aproximação.
+**Resumo da Notícia:** A notícia aborda as novas regras do Open Finance e sua relação com a implementação do Pix por aproximação, prevista para fevereiro de 2025.  Embora o Banco Central preveja melhorias em termos de eficiência e custos com o novo arcabouço regulatório, o sentimento detectado é majoritariamente negativo.
+**Pontos Positivos:**
+* **Facilitação do Pix por aproximação:** A notícia menciona que as novas regras do Open Finance devem facilitar a implementação do Pix por aproximação.
+* **Sistema mais leve, eficiente e barato:** O novo arcabouço regulatório promete tornar o Open Finance mais eficiente em termos de custos e operação.
+* **Aumento da transparência e competitividade:** O Open Finance visa aumentar a transparência e a competitividade no setor financeiro.
+* **Melhores condições e personalização de ofertas:** A expectativa é que o Open Finance possibilite melhores condições e personalização de ofertas para os consumidores.
+* **Consolidação em 2024 e uso de IA:** A previsão é de consolidação da ferramenta em 2024, impulsionada pelo uso da inteligência artificial, com portabilidades mais fluidas.
+**Possíveis Causas do Sentimento Negativo (Hipóteses):**
+Apesar dos pontos positivos mencionados, a predominância do sentimento negativo pode estar relacionada a alguns fatores não explicitados na notícia, tais como:
+* **Ceticismo em relação ao prazo de implementação:**  O prazo de fevereiro de 2025 para o Pix por aproximação pode ser visto como distante, gerando ceticismo.
+* **Desconfiança em relação à efetividade das novas regras:** Pode haver desconfiança quanto à capacidade do novo arcabouço regulatório em realmente tornar o sistema mais leve, eficiente e barato.
+* **Preocupações com segurança e privacidade de dados:**  A notícia não aborda questões de segurança e privacidade, o que pode gerar preocupações implícitas e contribuir para o sentimento negativo.
+* **Contexto externo:**  Fatores externos ao texto da notícia, como notícias negativas recentes sobre o setor financeiro ou o Open Finance, podem influenciar a percepção do leitor.
+* **Viés do modelo de análise de sentimento:** O modelo de análise de sentimento utilizado pode ter um viés que o leva a classificar a notícia como negativa, mesmo que o texto em si seja neutro ou ligeiramente positivo.
+**Recomendações:**
+* **Investigar as causas do sentimento negativo:** É importante aprofundar a análise para entender as reais causas do sentimento negativo detectado.
+* **Monitorar o sentimento público:** Acompanhar o sentimento público em relação ao Open Finance e ao Pix por aproximação pode auxiliar na identificação de potenciais problemas e na tomada de decisões estratégicas.
+* **Abordar as preocupações dos usuários:** É fundamental que o Banco Central e as instituições financeiras comuniquem de forma clara e transparente os benefícios do Open Finance e as medidas adotadas para garantir a segurança e a privacidade dos dados.
+**Conclusão:**
+Embora a notícia apresente avanços no Open Finance, o sentimento negativo detectado sugere a existência de  preocupações e desafios a serem enfrentados. Uma análise mais aprofundada é necessária para entender as causas desse sentimento e direcionar ações para promover a  adoção do Open Finance e seus benefícios.
+</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1162,6 +1636,20 @@
       <c r="D27" t="inlineStr">
         <is>
           <t>neutral (92.75%)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Transferências Inteligentes no Open Finance
+**Sentimento predominante:** Neutro (92.75%)
+**Resumo da Notícia:** A notícia aborda os desafios técnicos enfrentados pelas transferências inteligentes, uma funcionalidade do open finance que permite a movimentação automática de dinheiro entre contas via Pix. Apesar do potencial de praticidade e automação, a instabilidade nas conexões entre instituições financeiras tem gerado frustrações e lentidão nos processos. Fintechs como Mercado Pago e Noh relatam dificuldades,  impactando a experiência do usuário. O Banco Central reconhece os problemas e está trabalhando para aprimorar a infraestrutura e garantir maior estabilidade e agilidade.
+**Análise do Sentimento:** O sentimento neutro reflete o tom informativo e equilibrado da notícia.  A reportagem apresenta tanto os benefícios prometidos pelas transferências inteligentes quanto os obstáculos atuais.  Não há um tom excessivamente positivo ou negativo, mas sim uma descrição factual dos desafios e das ações em curso para solucioná-los.
+**Pontos de destaque:**
+* **Potencial das transferências inteligentes:** A notícia destaca a promessa de praticidade e automação que essa funcionalidade traz para os usuários.
+* **Desafios técnicos:** A instabilidade nas conexões e as dificuldades relatadas pelas fintechs são o foco principal da notícia, demonstrando os obstáculos que precisam ser superados.
+* **Resposta do Banco Central:** A menção à atuação do Banco Central para aprimorar o sistema contribui para um tom neutro, mostrando que há esforços para solucionar os problemas.
+**Conclusão:** A notícia apresenta um panorama realista da situação atual das transferências inteligentes no open finance.  Reconhece o potencial da tecnologia, mas também destaca os desafios técnicos que ainda precisam ser superados. O tom neutro e informativo permite ao leitor formar sua própria opinião sobre o assunto, com base nas informações apresentadas.
+</t>
         </is>
       </c>
     </row>
@@ -1191,6 +1679,23 @@
           <t>neutral (95.58000183105469%)</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório da Notícia: Goldin Finance 117 - Um Gigante Inacabado
+**Sentimento Geral:** Neutro (95.58%)
+A notícia sobre o Goldin Finance 117 apresenta um tom predominantemente neutro, focando nos fatos e na história do arranha-céu inacabado. Embora a situação em si seja negativa – um projeto ambicioso abandonado –, a narrativa evita expressar julgamentos de valor ou emoções fortes.
+**Pontos Principais:**
+* **Contexto:** O Goldin Finance 117, localizado em Tianjin, China, tornou-se o prédio abandonado mais alto do mundo. Sua construção, iniciada em 2008, visava atingir 597 metros de altura, como parte de um complexo de luxo.
+* **Problemas e Paralisações:** O projeto enfrentou múltiplas interrupções devido à recessão no mercado imobiliário chinês. Apesar de tentativas de retomada, a construção foi definitivamente paralisada em 2019, com apenas cerca de 3/4 da fachada concluída.
+* **Causas do Abandono:** A incapacidade da construtora de Hong Kong em obter financiamento governamental e a inviabilidade econômica do projeto foram os principais fatores que levaram ao seu abandono.
+* **Consequências e Regulamentações:** O fracasso do Goldin Finance 117 levou o governo chinês a impor novas restrições de altura para edifícios, proibindo construções acima de 500 metros e limitando severamente as acima de 250 metros. Essa medida visa controlar o desenvolvimento urbano e evitar projetos semelhantes no futuro.
+**Análise do Sentimento Neutro:**
+A neutralidade da notícia se reflete na apresentação factual dos eventos, sem recorrer a adjetivos carregados de emoção ou opiniões explícitas. A linguagem utilizada é descritiva e informativa, focando na cronologia do projeto, suas dificuldades e as consequências para o mercado imobiliário chinês.  A notícia se abstém de culpar ou elogiar qualquer parte envolvida, mantendo-se objetiva e imparcial.
+**Conclusão:**
+A notícia apresenta um relato neutro e informativo sobre o Goldin Finance 117, destacando as complexidades do mercado imobiliário chinês e as consequências de projetos ambiciosos que não se concretizam.  O foco na factualidade reforça a credibilidade da informação, permitindo que o leitor forme sua própria opinião sobre o caso.
+</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1213,6 +1718,26 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>positive (75.69000244140625%)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">## Relatório de Notícia - Portabilidade de Investimentos
+**Sentimento:** Positivo (75.69%)
+**Título da Notícia (Sugestão):** CVM simplifica portabilidade de investimentos com novas regras digitais
+**Resumo da Notícia:** A Comissão de Valores Mobiliários (CVM) anunciou novas regras que visam desburocratizar e simplificar a portabilidade de investimentos. A partir de julho de 2024, o processo poderá ser realizado digitalmente, com acompanhamento em tempo real, prazos mais transparentes e auxílio das instituições financeiras. A medida é considerada importante para o Open Finance, permitindo a consulta automatizada de dados e fomentando a concorrência no mercado de capitais.  A CVM planeja integrar a portabilidade ao Open Finance para maior automatização e melhor experiência do usuário.
+**Pontos Positivos:**
+* **Desburocratização e Simplificação:** A digitalização do processo e a transparência nos prazos tornam a portabilidade mais acessível e fácil para o investidor.
+* **Empoderamento do Investidor:** A possibilidade de migrar investimentos de forma mais ágil e com suporte das instituições financeiras dá maior controle ao investidor sobre seus recursos.
+* **Impulso ao Open Finance:** A integração com o Open Finance promete uma experiência ainda mais automatizada e eficiente, além de fomentar a competição entre as instituições financeiras, o que pode resultar em melhores produtos e serviços para o investidor.
+* **Maior Transparência:** Prazos mais claros e acompanhamento em tempo real contribuem para a segurança e a confiança do investidor no processo.
+**Potenciais Pontos de Atenção (apesar do sentimento positivo):**
+* **Implementação:**  A notícia menciona "a partir de julho de 2024". É importante monitorar a implementação das novas regras e garantir que o cronograma seja cumprido.
+* **Adaptação das Instituições Financeiras:**  A responsabilidade de auxiliar os investidores recai sobre as instituições financeiras. Será crucial que elas estejam preparadas para atender a demanda e oferecer o suporte necessário.
+* **Segurança dos Dados:** Com a digitalização do processo, a segurança das informações dos investidores se torna ainda mais crucial.  É importante que haja mecanismos robustos de proteção contra fraudes e vazamentos de dados.
+**Conclusão:**
+As novas regras para portabilidade de investimentos anunciadas pela CVM são um avanço positivo para o mercado de capitais brasileiro. A simplificação, a digitalização e a integração com o Open Finance têm o potencial de empoderar os investidores, aumentar a concorrência e modernizar o setor.  Acompanhar a implementação e a adaptação das instituições financeiras será fundamental para garantir o sucesso da iniciativa.
+</t>
         </is>
       </c>
     </row>
